--- a/INTLINE/data/132/DOUANES/Merchandise Trade SA_historical.xlsx
+++ b/INTLINE/data/132/DOUANES/Merchandise Trade SA_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NV16"/>
+  <dimension ref="A1:NW16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2292,6 +2292,11 @@
           <t>2022-01</t>
         </is>
       </c>
+      <c r="NW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3128,331 +3133,334 @@
         <v>36634.529141</v>
       </c>
       <c r="JR2" t="n">
-        <v>36451.078585</v>
+        <v>36458.428498</v>
       </c>
       <c r="JS2" t="n">
-        <v>35971.031744</v>
+        <v>35968.628383</v>
       </c>
       <c r="JT2" t="n">
-        <v>36297.474746</v>
+        <v>36299.335733</v>
       </c>
       <c r="JU2" t="n">
-        <v>38233.891767</v>
+        <v>38228.458545</v>
       </c>
       <c r="JV2" t="n">
-        <v>36493.494522</v>
+        <v>36481.677382</v>
       </c>
       <c r="JW2" t="n">
-        <v>36160.482767</v>
+        <v>36156.780455</v>
       </c>
       <c r="JX2" t="n">
-        <v>36336.659224</v>
+        <v>36340.415356</v>
       </c>
       <c r="JY2" t="n">
-        <v>36338.223116</v>
+        <v>36338.947117</v>
       </c>
       <c r="JZ2" t="n">
-        <v>36253.614405</v>
+        <v>36247.597655</v>
       </c>
       <c r="KA2" t="n">
-        <v>36782.601688</v>
+        <v>36784.634764</v>
       </c>
       <c r="KB2" t="n">
-        <v>35977.335585</v>
+        <v>35978.443058</v>
       </c>
       <c r="KC2" t="n">
-        <v>36626.118665</v>
+        <v>36621.675948</v>
       </c>
       <c r="KD2" t="n">
-        <v>36381.473518</v>
+        <v>36382.670164</v>
       </c>
       <c r="KE2" t="n">
-        <v>37030.538622</v>
+        <v>37033.628424</v>
       </c>
       <c r="KF2" t="n">
-        <v>36152.198471</v>
+        <v>36156.745929</v>
       </c>
       <c r="KG2" t="n">
-        <v>35938.102896</v>
+        <v>35936.164678</v>
       </c>
       <c r="KH2" t="n">
-        <v>36209.513599</v>
+        <v>36203.75985</v>
       </c>
       <c r="KI2" t="n">
-        <v>36191.310972</v>
+        <v>36187.097707</v>
       </c>
       <c r="KJ2" t="n">
-        <v>36527.128351</v>
+        <v>36527.02928</v>
       </c>
       <c r="KK2" t="n">
-        <v>35808.56943</v>
+        <v>35805.516029</v>
       </c>
       <c r="KL2" t="n">
-        <v>37083.277267</v>
+        <v>37073.122796</v>
       </c>
       <c r="KM2" t="n">
-        <v>37151.261975</v>
+        <v>37156.818143</v>
       </c>
       <c r="KN2" t="n">
-        <v>36897.154764</v>
+        <v>36898.672913</v>
       </c>
       <c r="KO2" t="n">
-        <v>37186.388939</v>
+        <v>37199.744039</v>
       </c>
       <c r="KP2" t="n">
-        <v>37318.930733</v>
+        <v>37315.138956</v>
       </c>
       <c r="KQ2" t="n">
-        <v>37904.211432</v>
+        <v>37918.546522</v>
       </c>
       <c r="KR2" t="n">
-        <v>37478.842622</v>
+        <v>37483.363833</v>
       </c>
       <c r="KS2" t="n">
-        <v>38201.65158</v>
+        <v>38204.949059</v>
       </c>
       <c r="KT2" t="n">
-        <v>38390.123185</v>
+        <v>38375.145575</v>
       </c>
       <c r="KU2" t="n">
-        <v>39739.44223</v>
+        <v>39735.886697</v>
       </c>
       <c r="KV2" t="n">
-        <v>38211.851611</v>
+        <v>38192.71421</v>
       </c>
       <c r="KW2" t="n">
-        <v>37192.359228</v>
+        <v>37189.054022</v>
       </c>
       <c r="KX2" t="n">
-        <v>37688.809535</v>
+        <v>37687.993265</v>
       </c>
       <c r="KY2" t="n">
-        <v>38040.410787</v>
+        <v>38050.125106</v>
       </c>
       <c r="KZ2" t="n">
-        <v>37754.163751</v>
+        <v>37748.023251</v>
       </c>
       <c r="LA2" t="n">
-        <v>38195.106756</v>
+        <v>38211.543407</v>
       </c>
       <c r="LB2" t="n">
-        <v>38550.943957</v>
+        <v>38545.379229</v>
       </c>
       <c r="LC2" t="n">
-        <v>37234.689404</v>
+        <v>37253.938672</v>
       </c>
       <c r="LD2" t="n">
-        <v>36497.489219</v>
+        <v>36505.720455</v>
       </c>
       <c r="LE2" t="n">
-        <v>37264.437664</v>
+        <v>37270.915219</v>
       </c>
       <c r="LF2" t="n">
-        <v>37698.193794</v>
+        <v>37683.604514</v>
       </c>
       <c r="LG2" t="n">
-        <v>36733.550707</v>
+        <v>36736.560929</v>
       </c>
       <c r="LH2" t="n">
-        <v>37569.140778</v>
+        <v>37514.595</v>
       </c>
       <c r="LI2" t="n">
-        <v>37493.348392</v>
+        <v>37492.904564</v>
       </c>
       <c r="LJ2" t="n">
-        <v>37266.254333</v>
+        <v>37279.711564</v>
       </c>
       <c r="LK2" t="n">
-        <v>36676.751707</v>
+        <v>36683.553987</v>
       </c>
       <c r="LL2" t="n">
-        <v>38356.466993</v>
+        <v>38360.498101</v>
       </c>
       <c r="LM2" t="n">
-        <v>40548.382704</v>
+        <v>40580.500482</v>
       </c>
       <c r="LN2" t="n">
-        <v>37181.387904</v>
+        <v>37174.94143</v>
       </c>
       <c r="LO2" t="n">
-        <v>38212.889441</v>
+        <v>38216.102542</v>
       </c>
       <c r="LP2" t="n">
-        <v>39537.58497</v>
+        <v>39546.459147</v>
       </c>
       <c r="LQ2" t="n">
-        <v>38260.028707</v>
+        <v>38271.366658</v>
       </c>
       <c r="LR2" t="n">
-        <v>40636.691393</v>
+        <v>40625.824405</v>
       </c>
       <c r="LS2" t="n">
-        <v>39267.157975</v>
+        <v>39270.856584</v>
       </c>
       <c r="LT2" t="n">
-        <v>39588.838009</v>
+        <v>39495.262575</v>
       </c>
       <c r="LU2" t="n">
-        <v>39483.363909</v>
+        <v>39491.182065</v>
       </c>
       <c r="LV2" t="n">
-        <v>40742.595792</v>
+        <v>40782.263642</v>
       </c>
       <c r="LW2" t="n">
-        <v>39890.494486</v>
+        <v>39891.829469</v>
       </c>
       <c r="LX2" t="n">
-        <v>39864.847408</v>
+        <v>39875.164059</v>
       </c>
       <c r="LY2" t="n">
-        <v>42151.637281</v>
+        <v>42190.247909</v>
       </c>
       <c r="LZ2" t="n">
-        <v>40057.706016</v>
+        <v>40064.029881</v>
       </c>
       <c r="MA2" t="n">
-        <v>39750.989109</v>
+        <v>39708.225837</v>
       </c>
       <c r="MB2" t="n">
-        <v>40816.654424</v>
+        <v>40813.411085</v>
       </c>
       <c r="MC2" t="n">
-        <v>40885.883188</v>
+        <v>40904.851792</v>
       </c>
       <c r="MD2" t="n">
-        <v>39760.061689</v>
+        <v>39754.584111</v>
       </c>
       <c r="ME2" t="n">
-        <v>41187.492736</v>
+        <v>41191.784433</v>
       </c>
       <c r="MF2" t="n">
-        <v>42127.721948</v>
+        <v>41985.420121</v>
       </c>
       <c r="MG2" t="n">
-        <v>40889.93616</v>
+        <v>40895.108304</v>
       </c>
       <c r="MH2" t="n">
-        <v>40951.842079</v>
+        <v>41020.211149</v>
       </c>
       <c r="MI2" t="n">
-        <v>43128.386404</v>
+        <v>43156.953022</v>
       </c>
       <c r="MJ2" t="n">
-        <v>41062.545948</v>
+        <v>41080.41874</v>
       </c>
       <c r="MK2" t="n">
-        <v>42285.548327</v>
+        <v>42356.091044</v>
       </c>
       <c r="ML2" t="n">
-        <v>42378.576395</v>
+        <v>42409.862118</v>
       </c>
       <c r="MM2" t="n">
-        <v>42641.082046</v>
+        <v>42492.573767</v>
       </c>
       <c r="MN2" t="n">
-        <v>43758.981971</v>
+        <v>43758.6473</v>
       </c>
       <c r="MO2" t="n">
-        <v>42255.114437</v>
+        <v>42279.730323</v>
       </c>
       <c r="MP2" t="n">
-        <v>44825.778664</v>
+        <v>44810.548249</v>
       </c>
       <c r="MQ2" t="n">
-        <v>42302.392691</v>
+        <v>42329.795853</v>
       </c>
       <c r="MR2" t="n">
-        <v>42354.986399</v>
+        <v>42227.867234</v>
       </c>
       <c r="MS2" t="n">
-        <v>43099.279329</v>
+        <v>43146.278865</v>
       </c>
       <c r="MT2" t="n">
-        <v>41507.299064</v>
+        <v>41633.034596</v>
       </c>
       <c r="MU2" t="n">
-        <v>42837.886451</v>
+        <v>42915.422224</v>
       </c>
       <c r="MV2" t="n">
-        <v>41833.620633</v>
+        <v>41894.471214</v>
       </c>
       <c r="MW2" t="n">
-        <v>41105.022067</v>
+        <v>41230.522248</v>
       </c>
       <c r="MX2" t="n">
-        <v>39913.928635</v>
+        <v>39981.903551</v>
       </c>
       <c r="MY2" t="n">
-        <v>42363.881282</v>
+        <v>42062.556953</v>
       </c>
       <c r="MZ2" t="n">
-        <v>35370.426093</v>
+        <v>35375.787501</v>
       </c>
       <c r="NA2" t="n">
-        <v>23873.084985</v>
+        <v>23896.098901</v>
       </c>
       <c r="NB2" t="n">
-        <v>28239.196192</v>
+        <v>28248.229045</v>
       </c>
       <c r="NC2" t="n">
-        <v>32903.793188</v>
+        <v>32917.284801</v>
       </c>
       <c r="ND2" t="n">
-        <v>35942.426638</v>
+        <v>35921.941487</v>
       </c>
       <c r="NE2" t="n">
-        <v>35650.975492</v>
+        <v>35670.973952</v>
       </c>
       <c r="NF2" t="n">
-        <v>37500.53823</v>
+        <v>37600.84611</v>
       </c>
       <c r="NG2" t="n">
-        <v>38764.35803</v>
+        <v>38855.024292</v>
       </c>
       <c r="NH2" t="n">
-        <v>38844.708176</v>
+        <v>38901.722641</v>
       </c>
       <c r="NI2" t="n">
-        <v>38707.487092</v>
+        <v>38853.313015</v>
       </c>
       <c r="NJ2" t="n">
-        <v>39250.780546</v>
+        <v>39299.133455</v>
       </c>
       <c r="NK2" t="n">
-        <v>38712.020657</v>
+        <v>38488.244792</v>
       </c>
       <c r="NL2" t="n">
-        <v>39934.282001</v>
+        <v>39960.28706</v>
       </c>
       <c r="NM2" t="n">
-        <v>40745.302155</v>
+        <v>40804.225664</v>
       </c>
       <c r="NN2" t="n">
-        <v>39626.950509</v>
+        <v>39655.153684</v>
       </c>
       <c r="NO2" t="n">
-        <v>41862.91074</v>
+        <v>41910.639973</v>
       </c>
       <c r="NP2" t="n">
-        <v>41020.366887</v>
+        <v>40988.20441</v>
       </c>
       <c r="NQ2" t="n">
-        <v>42616.460648</v>
+        <v>42623.323982</v>
       </c>
       <c r="NR2" t="n">
-        <v>42399.728175</v>
+        <v>42488.384685</v>
       </c>
       <c r="NS2" t="n">
-        <v>43575.072681</v>
+        <v>43662.639832</v>
       </c>
       <c r="NT2" t="n">
-        <v>44286.925741</v>
+        <v>44328.687212</v>
       </c>
       <c r="NU2" t="n">
-        <v>44224.083407</v>
+        <v>44361.801541</v>
       </c>
       <c r="NV2" t="n">
-        <v>47274.223941</v>
+        <v>47603.891206</v>
+      </c>
+      <c r="NW2" t="n">
+        <v>45747.704684</v>
       </c>
     </row>
     <row r="3">
@@ -4290,331 +4298,334 @@
         <v>41833.023052</v>
       </c>
       <c r="JR3" t="n">
-        <v>42148.035724</v>
+        <v>42150.822339</v>
       </c>
       <c r="JS3" t="n">
-        <v>41948.010973</v>
+        <v>41949.992366</v>
       </c>
       <c r="JT3" t="n">
-        <v>40826.85749</v>
+        <v>40824.830072</v>
       </c>
       <c r="JU3" t="n">
-        <v>42520.851271</v>
+        <v>42521.004945</v>
       </c>
       <c r="JV3" t="n">
-        <v>42054.352911</v>
+        <v>42051.750291</v>
       </c>
       <c r="JW3" t="n">
-        <v>40859.251762</v>
+        <v>40854.853623</v>
       </c>
       <c r="JX3" t="n">
-        <v>41336.500191</v>
+        <v>41344.475109</v>
       </c>
       <c r="JY3" t="n">
-        <v>41099.05498</v>
+        <v>41098.24611</v>
       </c>
       <c r="JZ3" t="n">
-        <v>42148.590418</v>
+        <v>42143.388107</v>
       </c>
       <c r="KA3" t="n">
-        <v>41334.903083</v>
+        <v>41334.983377</v>
       </c>
       <c r="KB3" t="n">
-        <v>41881.631704</v>
+        <v>41878.946253</v>
       </c>
       <c r="KC3" t="n">
-        <v>41978.852977</v>
+        <v>41977.402871</v>
       </c>
       <c r="KD3" t="n">
-        <v>42293.212098</v>
+        <v>42296.03296</v>
       </c>
       <c r="KE3" t="n">
-        <v>40115.022417</v>
+        <v>40120.98385</v>
       </c>
       <c r="KF3" t="n">
-        <v>41088.886477</v>
+        <v>41082.218226</v>
       </c>
       <c r="KG3" t="n">
-        <v>40599.128933</v>
+        <v>40600.586085</v>
       </c>
       <c r="KH3" t="n">
-        <v>40786.943976</v>
+        <v>40803.056759</v>
       </c>
       <c r="KI3" t="n">
-        <v>41917.424364</v>
+        <v>41911.070802</v>
       </c>
       <c r="KJ3" t="n">
-        <v>42129.22079</v>
+        <v>42132.828164</v>
       </c>
       <c r="KK3" t="n">
-        <v>41303.630122</v>
+        <v>41296.43823</v>
       </c>
       <c r="KL3" t="n">
-        <v>41759.48877</v>
+        <v>41756.121445</v>
       </c>
       <c r="KM3" t="n">
-        <v>41105.535029</v>
+        <v>41113.394386</v>
       </c>
       <c r="KN3" t="n">
-        <v>40879.019447</v>
+        <v>40876.990376</v>
       </c>
       <c r="KO3" t="n">
-        <v>40962.001249</v>
+        <v>40972.945981</v>
       </c>
       <c r="KP3" t="n">
-        <v>40374.354083</v>
+        <v>40375.150225</v>
       </c>
       <c r="KQ3" t="n">
-        <v>40363.524177</v>
+        <v>40360.493927</v>
       </c>
       <c r="KR3" t="n">
-        <v>42550.943644</v>
+        <v>42545.113682</v>
       </c>
       <c r="KS3" t="n">
-        <v>41372.198303</v>
+        <v>41372.864007</v>
       </c>
       <c r="KT3" t="n">
-        <v>42810.144701</v>
+        <v>42797.283555</v>
       </c>
       <c r="KU3" t="n">
-        <v>42124.02384</v>
+        <v>42124.65663</v>
       </c>
       <c r="KV3" t="n">
-        <v>41565.129637</v>
+        <v>41573.863006</v>
       </c>
       <c r="KW3" t="n">
-        <v>40598.066432</v>
+        <v>40592.701583</v>
       </c>
       <c r="KX3" t="n">
-        <v>41572.734945</v>
+        <v>41572.074121</v>
       </c>
       <c r="KY3" t="n">
-        <v>42118.998931</v>
+        <v>42125.085497</v>
       </c>
       <c r="KZ3" t="n">
-        <v>41634.074886</v>
+        <v>41630.873006</v>
       </c>
       <c r="LA3" t="n">
-        <v>41881.021555</v>
+        <v>41889.492204</v>
       </c>
       <c r="LB3" t="n">
-        <v>41240.247</v>
+        <v>41236.28967</v>
       </c>
       <c r="LC3" t="n">
-        <v>41349.344181</v>
+        <v>41341.719439</v>
       </c>
       <c r="LD3" t="n">
-        <v>40599.638398</v>
+        <v>40594.276289</v>
       </c>
       <c r="LE3" t="n">
-        <v>41135.291516</v>
+        <v>41136.622192</v>
       </c>
       <c r="LF3" t="n">
-        <v>39751.817443</v>
+        <v>39747.31477</v>
       </c>
       <c r="LG3" t="n">
-        <v>39901.443434</v>
+        <v>39905.717967</v>
       </c>
       <c r="LH3" t="n">
-        <v>41316.593657</v>
+        <v>41320.151149</v>
       </c>
       <c r="LI3" t="n">
-        <v>42548.61231</v>
+        <v>42544.830594</v>
       </c>
       <c r="LJ3" t="n">
-        <v>41473.905272</v>
+        <v>41472.834682</v>
       </c>
       <c r="LK3" t="n">
-        <v>41603.744332</v>
+        <v>41608.727859</v>
       </c>
       <c r="LL3" t="n">
-        <v>43087.172666</v>
+        <v>43090.58412</v>
       </c>
       <c r="LM3" t="n">
-        <v>43597.806505</v>
+        <v>43619.18096</v>
       </c>
       <c r="LN3" t="n">
-        <v>44655.839144</v>
+        <v>44661.934902</v>
       </c>
       <c r="LO3" t="n">
-        <v>43568.499642</v>
+        <v>43544.96502</v>
       </c>
       <c r="LP3" t="n">
-        <v>43984.929917</v>
+        <v>43982.739166</v>
       </c>
       <c r="LQ3" t="n">
-        <v>43357.358313</v>
+        <v>43348.931666</v>
       </c>
       <c r="LR3" t="n">
-        <v>44504.664065</v>
+        <v>44500.844476</v>
       </c>
       <c r="LS3" t="n">
-        <v>43484.39862</v>
+        <v>43486.670443</v>
       </c>
       <c r="LT3" t="n">
-        <v>45447.898395</v>
+        <v>45441.43888</v>
       </c>
       <c r="LU3" t="n">
-        <v>44042.259519</v>
+        <v>44033.103419</v>
       </c>
       <c r="LV3" t="n">
-        <v>44537.425102</v>
+        <v>44540.09338</v>
       </c>
       <c r="LW3" t="n">
-        <v>44807.65732</v>
+        <v>44820.045155</v>
       </c>
       <c r="LX3" t="n">
-        <v>45627.632236</v>
+        <v>45638.651412</v>
       </c>
       <c r="LY3" t="n">
-        <v>45459.13184</v>
+        <v>45495.888349</v>
       </c>
       <c r="LZ3" t="n">
-        <v>46342.18629</v>
+        <v>46356.231972</v>
       </c>
       <c r="MA3" t="n">
-        <v>44765.638299</v>
+        <v>44719.964753</v>
       </c>
       <c r="MB3" t="n">
-        <v>44850.947236</v>
+        <v>44838.070857</v>
       </c>
       <c r="MC3" t="n">
-        <v>46331.091456</v>
+        <v>46319.973063</v>
       </c>
       <c r="MD3" t="n">
-        <v>46477.245077</v>
+        <v>46468.108716</v>
       </c>
       <c r="ME3" t="n">
-        <v>46923.796725</v>
+        <v>46921.803281</v>
       </c>
       <c r="MF3" t="n">
-        <v>46569.745724</v>
+        <v>46564.674311</v>
       </c>
       <c r="MG3" t="n">
-        <v>46837.07442</v>
+        <v>46823.826692</v>
       </c>
       <c r="MH3" t="n">
-        <v>46773.978113</v>
+        <v>46774.918759</v>
       </c>
       <c r="MI3" t="n">
-        <v>47640.862667</v>
+        <v>47664.754275</v>
       </c>
       <c r="MJ3" t="n">
-        <v>45813.555421</v>
+        <v>45842.719897</v>
       </c>
       <c r="MK3" t="n">
-        <v>46772.587673</v>
+        <v>46838.473069</v>
       </c>
       <c r="ML3" t="n">
-        <v>46849.373347</v>
+        <v>46871.497037</v>
       </c>
       <c r="MM3" t="n">
-        <v>47078.318924</v>
+        <v>46992.409311</v>
       </c>
       <c r="MN3" t="n">
-        <v>48524.797344</v>
+        <v>48503.009396</v>
       </c>
       <c r="MO3" t="n">
-        <v>47642.192844</v>
+        <v>47625.814665</v>
       </c>
       <c r="MP3" t="n">
-        <v>48116.239806</v>
+        <v>48097.384974</v>
       </c>
       <c r="MQ3" t="n">
-        <v>47956.776843</v>
+        <v>47949.820743</v>
       </c>
       <c r="MR3" t="n">
-        <v>47622.595193</v>
+        <v>47622.661277</v>
       </c>
       <c r="MS3" t="n">
-        <v>47884.734996</v>
+        <v>47880.24111</v>
       </c>
       <c r="MT3" t="n">
-        <v>47117.011251</v>
+        <v>47148.262625</v>
       </c>
       <c r="MU3" t="n">
-        <v>47533.06371</v>
+        <v>47581.563677</v>
       </c>
       <c r="MV3" t="n">
-        <v>47074.839548</v>
+        <v>47120.787285</v>
       </c>
       <c r="MW3" t="n">
-        <v>45626.214535</v>
+        <v>45745.306929</v>
       </c>
       <c r="MX3" t="n">
-        <v>45686.023292</v>
+        <v>45713.309567</v>
       </c>
       <c r="MY3" t="n">
-        <v>46956.950016</v>
+        <v>46849.742179</v>
       </c>
       <c r="MZ3" t="n">
-        <v>37880.562912</v>
+        <v>37871.790328</v>
       </c>
       <c r="NA3" t="n">
-        <v>28510.025409</v>
+        <v>28502.371821</v>
       </c>
       <c r="NB3" t="n">
-        <v>35262.525311</v>
+        <v>35244.150567</v>
       </c>
       <c r="NC3" t="n">
-        <v>40844.160918</v>
+        <v>40851.473993</v>
       </c>
       <c r="ND3" t="n">
-        <v>42761.041684</v>
+        <v>42774.061267</v>
       </c>
       <c r="NE3" t="n">
-        <v>42768.572409</v>
+        <v>42772.700926</v>
       </c>
       <c r="NF3" t="n">
-        <v>43327.193968</v>
+        <v>43359.868973</v>
       </c>
       <c r="NG3" t="n">
-        <v>43619.644537</v>
+        <v>43649.726486</v>
       </c>
       <c r="NH3" t="n">
-        <v>42581.268159</v>
+        <v>42639.912509</v>
       </c>
       <c r="NI3" t="n">
-        <v>42863.378578</v>
+        <v>42954.293483</v>
       </c>
       <c r="NJ3" t="n">
-        <v>43913.704635</v>
+        <v>43918.867957</v>
       </c>
       <c r="NK3" t="n">
-        <v>43951.945718</v>
+        <v>43832.806213</v>
       </c>
       <c r="NL3" t="n">
-        <v>46093.196277</v>
+        <v>46084.6213</v>
       </c>
       <c r="NM3" t="n">
-        <v>46978.044742</v>
+        <v>46975.381241</v>
       </c>
       <c r="NN3" t="n">
-        <v>46335.393816</v>
+        <v>46326.084555</v>
       </c>
       <c r="NO3" t="n">
-        <v>47863.441319</v>
+        <v>47861.070904</v>
       </c>
       <c r="NP3" t="n">
-        <v>48268.289138</v>
+        <v>48259.331764</v>
       </c>
       <c r="NQ3" t="n">
-        <v>49428.565835</v>
+        <v>49433.780927</v>
       </c>
       <c r="NR3" t="n">
-        <v>49323.041463</v>
+        <v>49347.28079</v>
       </c>
       <c r="NS3" t="n">
-        <v>51402.495786</v>
+        <v>51478.771022</v>
       </c>
       <c r="NT3" t="n">
-        <v>54089.129944</v>
+        <v>54185.209959</v>
       </c>
       <c r="NU3" t="n">
-        <v>55618.440737</v>
+        <v>55575.255265</v>
       </c>
       <c r="NV3" t="n">
-        <v>55307.908054</v>
+        <v>55558.660136</v>
+      </c>
+      <c r="NW3" t="n">
+        <v>56020.707376</v>
       </c>
     </row>
     <row r="4">
@@ -5452,331 +5463,334 @@
         <v>-5198.493911</v>
       </c>
       <c r="JR4" t="n">
-        <v>-5696.957139</v>
+        <v>-5692.393841</v>
       </c>
       <c r="JS4" t="n">
-        <v>-5976.979229</v>
+        <v>-5981.363983</v>
       </c>
       <c r="JT4" t="n">
-        <v>-4529.382744</v>
+        <v>-4525.494339</v>
       </c>
       <c r="JU4" t="n">
-        <v>-4286.959504</v>
+        <v>-4292.5464</v>
       </c>
       <c r="JV4" t="n">
-        <v>-5560.858389</v>
+        <v>-5570.072909</v>
       </c>
       <c r="JW4" t="n">
-        <v>-4698.768995</v>
+        <v>-4698.073168</v>
       </c>
       <c r="JX4" t="n">
-        <v>-4999.840967</v>
+        <v>-5004.059753</v>
       </c>
       <c r="JY4" t="n">
-        <v>-4760.831864</v>
+        <v>-4759.298993</v>
       </c>
       <c r="JZ4" t="n">
-        <v>-5894.976013</v>
+        <v>-5895.790452</v>
       </c>
       <c r="KA4" t="n">
-        <v>-4552.301395</v>
+        <v>-4550.348613</v>
       </c>
       <c r="KB4" t="n">
-        <v>-5904.296119</v>
+        <v>-5900.503195</v>
       </c>
       <c r="KC4" t="n">
-        <v>-5352.734312</v>
+        <v>-5355.726923</v>
       </c>
       <c r="KD4" t="n">
-        <v>-5911.73858</v>
+        <v>-5913.362796</v>
       </c>
       <c r="KE4" t="n">
-        <v>-3084.483795</v>
+        <v>-3087.355426</v>
       </c>
       <c r="KF4" t="n">
-        <v>-4936.688006</v>
+        <v>-4925.472297</v>
       </c>
       <c r="KG4" t="n">
-        <v>-4661.026037</v>
+        <v>-4664.421407</v>
       </c>
       <c r="KH4" t="n">
-        <v>-4577.430377</v>
+        <v>-4599.296909</v>
       </c>
       <c r="KI4" t="n">
-        <v>-5726.113392</v>
+        <v>-5723.973095</v>
       </c>
       <c r="KJ4" t="n">
-        <v>-5602.092439</v>
+        <v>-5605.798884</v>
       </c>
       <c r="KK4" t="n">
-        <v>-5495.060692</v>
+        <v>-5490.922201</v>
       </c>
       <c r="KL4" t="n">
-        <v>-4676.211503</v>
+        <v>-4682.998649</v>
       </c>
       <c r="KM4" t="n">
-        <v>-3954.273054</v>
+        <v>-3956.576243</v>
       </c>
       <c r="KN4" t="n">
-        <v>-3981.864683</v>
+        <v>-3978.317463</v>
       </c>
       <c r="KO4" t="n">
-        <v>-3775.61231</v>
+        <v>-3773.201942</v>
       </c>
       <c r="KP4" t="n">
-        <v>-3055.42335</v>
+        <v>-3060.011269</v>
       </c>
       <c r="KQ4" t="n">
-        <v>-2459.312745</v>
+        <v>-2441.947405</v>
       </c>
       <c r="KR4" t="n">
-        <v>-5072.101022</v>
+        <v>-5061.749849</v>
       </c>
       <c r="KS4" t="n">
-        <v>-3170.546723</v>
+        <v>-3167.914948</v>
       </c>
       <c r="KT4" t="n">
-        <v>-4420.021516</v>
+        <v>-4422.13798</v>
       </c>
       <c r="KU4" t="n">
-        <v>-2384.58161</v>
+        <v>-2388.769933</v>
       </c>
       <c r="KV4" t="n">
-        <v>-3353.278026</v>
+        <v>-3381.148796</v>
       </c>
       <c r="KW4" t="n">
-        <v>-3405.707204</v>
+        <v>-3403.647561</v>
       </c>
       <c r="KX4" t="n">
-        <v>-3883.92541</v>
+        <v>-3884.080856</v>
       </c>
       <c r="KY4" t="n">
-        <v>-4078.588144</v>
+        <v>-4074.960391</v>
       </c>
       <c r="KZ4" t="n">
-        <v>-3879.911135</v>
+        <v>-3882.849755</v>
       </c>
       <c r="LA4" t="n">
-        <v>-3685.914799</v>
+        <v>-3677.948797</v>
       </c>
       <c r="LB4" t="n">
-        <v>-2689.303043</v>
+        <v>-2690.910441</v>
       </c>
       <c r="LC4" t="n">
-        <v>-4114.654777</v>
+        <v>-4087.780767</v>
       </c>
       <c r="LD4" t="n">
-        <v>-4102.149179</v>
+        <v>-4088.555834</v>
       </c>
       <c r="LE4" t="n">
-        <v>-3870.853852</v>
+        <v>-3865.706973</v>
       </c>
       <c r="LF4" t="n">
-        <v>-2053.623649</v>
+        <v>-2063.710256</v>
       </c>
       <c r="LG4" t="n">
-        <v>-3167.892727</v>
+        <v>-3169.157038</v>
       </c>
       <c r="LH4" t="n">
-        <v>-3747.452879</v>
+        <v>-3805.556149</v>
       </c>
       <c r="LI4" t="n">
-        <v>-5055.263918</v>
+        <v>-5051.92603</v>
       </c>
       <c r="LJ4" t="n">
-        <v>-4207.650939</v>
+        <v>-4193.123118</v>
       </c>
       <c r="LK4" t="n">
-        <v>-4926.992625</v>
+        <v>-4925.173872</v>
       </c>
       <c r="LL4" t="n">
-        <v>-4730.705673</v>
+        <v>-4730.086019</v>
       </c>
       <c r="LM4" t="n">
-        <v>-3049.423801</v>
+        <v>-3038.680478</v>
       </c>
       <c r="LN4" t="n">
-        <v>-7474.45124</v>
+        <v>-7486.993472</v>
       </c>
       <c r="LO4" t="n">
-        <v>-5355.610201</v>
+        <v>-5328.862478</v>
       </c>
       <c r="LP4" t="n">
-        <v>-4447.344947</v>
+        <v>-4436.280019</v>
       </c>
       <c r="LQ4" t="n">
-        <v>-5097.329606</v>
+        <v>-5077.565008</v>
       </c>
       <c r="LR4" t="n">
-        <v>-3867.972672</v>
+        <v>-3875.020071</v>
       </c>
       <c r="LS4" t="n">
-        <v>-4217.240645</v>
+        <v>-4215.813859</v>
       </c>
       <c r="LT4" t="n">
-        <v>-5859.060386</v>
+        <v>-5946.176305</v>
       </c>
       <c r="LU4" t="n">
-        <v>-4558.89561</v>
+        <v>-4541.921354</v>
       </c>
       <c r="LV4" t="n">
-        <v>-3794.82931</v>
+        <v>-3757.829738</v>
       </c>
       <c r="LW4" t="n">
-        <v>-4917.162834</v>
+        <v>-4928.215686</v>
       </c>
       <c r="LX4" t="n">
-        <v>-5762.784828</v>
+        <v>-5763.487353</v>
       </c>
       <c r="LY4" t="n">
-        <v>-3307.494559</v>
+        <v>-3305.64044</v>
       </c>
       <c r="LZ4" t="n">
-        <v>-6284.480274</v>
+        <v>-6292.202091</v>
       </c>
       <c r="MA4" t="n">
-        <v>-5014.64919</v>
+        <v>-5011.738916</v>
       </c>
       <c r="MB4" t="n">
-        <v>-4034.292812</v>
+        <v>-4024.659772</v>
       </c>
       <c r="MC4" t="n">
-        <v>-5445.208268</v>
+        <v>-5415.121271</v>
       </c>
       <c r="MD4" t="n">
-        <v>-6717.183388</v>
+        <v>-6713.524605</v>
       </c>
       <c r="ME4" t="n">
-        <v>-5736.303989</v>
+        <v>-5730.018848</v>
       </c>
       <c r="MF4" t="n">
-        <v>-4442.023776</v>
+        <v>-4579.25419</v>
       </c>
       <c r="MG4" t="n">
-        <v>-5947.13826</v>
+        <v>-5928.718388</v>
       </c>
       <c r="MH4" t="n">
-        <v>-5822.136034</v>
+        <v>-5754.70761</v>
       </c>
       <c r="MI4" t="n">
-        <v>-4512.476263</v>
+        <v>-4507.801253</v>
       </c>
       <c r="MJ4" t="n">
-        <v>-4751.009473</v>
+        <v>-4762.301157</v>
       </c>
       <c r="MK4" t="n">
-        <v>-4487.039346</v>
+        <v>-4482.382025</v>
       </c>
       <c r="ML4" t="n">
-        <v>-4470.796952</v>
+        <v>-4461.634919</v>
       </c>
       <c r="MM4" t="n">
-        <v>-4437.236878</v>
+        <v>-4499.835544</v>
       </c>
       <c r="MN4" t="n">
-        <v>-4765.815373</v>
+        <v>-4744.362096</v>
       </c>
       <c r="MO4" t="n">
-        <v>-5387.078407</v>
+        <v>-5346.084342</v>
       </c>
       <c r="MP4" t="n">
-        <v>-3290.461142</v>
+        <v>-3286.836725</v>
       </c>
       <c r="MQ4" t="n">
-        <v>-5654.384152</v>
+        <v>-5620.02489</v>
       </c>
       <c r="MR4" t="n">
-        <v>-5267.608794</v>
+        <v>-5394.794043</v>
       </c>
       <c r="MS4" t="n">
-        <v>-4785.455667</v>
+        <v>-4733.962245</v>
       </c>
       <c r="MT4" t="n">
-        <v>-5609.712187</v>
+        <v>-5515.228029</v>
       </c>
       <c r="MU4" t="n">
-        <v>-4695.177259</v>
+        <v>-4666.141453</v>
       </c>
       <c r="MV4" t="n">
-        <v>-5241.218915</v>
+        <v>-5226.316071</v>
       </c>
       <c r="MW4" t="n">
-        <v>-4521.192468</v>
+        <v>-4514.784681</v>
       </c>
       <c r="MX4" t="n">
-        <v>-5772.094657</v>
+        <v>-5731.406016</v>
       </c>
       <c r="MY4" t="n">
-        <v>-4593.068734</v>
+        <v>-4787.185226</v>
       </c>
       <c r="MZ4" t="n">
-        <v>-2510.136819</v>
+        <v>-2496.002827</v>
       </c>
       <c r="NA4" t="n">
-        <v>-4636.940424</v>
+        <v>-4606.27292</v>
       </c>
       <c r="NB4" t="n">
-        <v>-7023.329119</v>
+        <v>-6995.921522</v>
       </c>
       <c r="NC4" t="n">
-        <v>-7940.36773</v>
+        <v>-7934.189192</v>
       </c>
       <c r="ND4" t="n">
-        <v>-6818.615046</v>
+        <v>-6852.11978</v>
       </c>
       <c r="NE4" t="n">
-        <v>-7117.596917</v>
+        <v>-7101.726974</v>
       </c>
       <c r="NF4" t="n">
-        <v>-5826.655738</v>
+        <v>-5759.022863</v>
       </c>
       <c r="NG4" t="n">
-        <v>-4855.286507</v>
+        <v>-4794.702194</v>
       </c>
       <c r="NH4" t="n">
-        <v>-3736.559983</v>
+        <v>-3738.189868</v>
       </c>
       <c r="NI4" t="n">
-        <v>-4155.891486</v>
+        <v>-4100.980468</v>
       </c>
       <c r="NJ4" t="n">
-        <v>-4662.924089</v>
+        <v>-4619.734502</v>
       </c>
       <c r="NK4" t="n">
-        <v>-5239.925061</v>
+        <v>-5344.561421</v>
       </c>
       <c r="NL4" t="n">
-        <v>-6158.914276</v>
+        <v>-6124.33424</v>
       </c>
       <c r="NM4" t="n">
-        <v>-6232.742587</v>
+        <v>-6171.155577</v>
       </c>
       <c r="NN4" t="n">
-        <v>-6708.443307</v>
+        <v>-6670.930871</v>
       </c>
       <c r="NO4" t="n">
-        <v>-6000.530579</v>
+        <v>-5950.430931</v>
       </c>
       <c r="NP4" t="n">
-        <v>-7247.922251</v>
+        <v>-7271.127354</v>
       </c>
       <c r="NQ4" t="n">
-        <v>-6812.105187</v>
+        <v>-6810.456945</v>
       </c>
       <c r="NR4" t="n">
-        <v>-6923.313288</v>
+        <v>-6858.896105</v>
       </c>
       <c r="NS4" t="n">
-        <v>-7827.423105</v>
+        <v>-7816.13119</v>
       </c>
       <c r="NT4" t="n">
-        <v>-9802.204202999999</v>
+        <v>-9856.522747000001</v>
       </c>
       <c r="NU4" t="n">
-        <v>-11394.35733</v>
+        <v>-11213.453724</v>
       </c>
       <c r="NV4" t="n">
-        <v>-8033.684113</v>
+        <v>-7954.76893</v>
+      </c>
+      <c r="NW4" t="n">
+        <v>-10273.002692</v>
       </c>
     </row>
     <row r="5">
@@ -6374,331 +6388,334 @@
         <v>1454.043531</v>
       </c>
       <c r="JR5" t="n">
-        <v>1469.913213</v>
+        <v>1469.868706</v>
       </c>
       <c r="JS5" t="n">
-        <v>1454.941923</v>
+        <v>1454.972025</v>
       </c>
       <c r="JT5" t="n">
-        <v>1430.581771</v>
+        <v>1430.581521</v>
       </c>
       <c r="JU5" t="n">
-        <v>1412.297897</v>
+        <v>1412.156391</v>
       </c>
       <c r="JV5" t="n">
-        <v>1392.107178</v>
+        <v>1391.837665</v>
       </c>
       <c r="JW5" t="n">
-        <v>1293.323722</v>
+        <v>1293.201693</v>
       </c>
       <c r="JX5" t="n">
-        <v>1248.379277</v>
+        <v>1249.681103</v>
       </c>
       <c r="JY5" t="n">
-        <v>1377.370222</v>
+        <v>1376.394583</v>
       </c>
       <c r="JZ5" t="n">
-        <v>1348.860696</v>
+        <v>1348.887926</v>
       </c>
       <c r="KA5" t="n">
-        <v>1216.527847</v>
+        <v>1216.643141</v>
       </c>
       <c r="KB5" t="n">
-        <v>1239.751006</v>
+        <v>1239.411525</v>
       </c>
       <c r="KC5" t="n">
-        <v>1310.037315</v>
+        <v>1309.719634</v>
       </c>
       <c r="KD5" t="n">
-        <v>1292.968457</v>
+        <v>1292.937841</v>
       </c>
       <c r="KE5" t="n">
-        <v>1240.405354</v>
+        <v>1240.369003</v>
       </c>
       <c r="KF5" t="n">
-        <v>1179.961299</v>
+        <v>1180.005536</v>
       </c>
       <c r="KG5" t="n">
-        <v>1162.113257</v>
+        <v>1161.948311</v>
       </c>
       <c r="KH5" t="n">
-        <v>1150.765215</v>
+        <v>1151.092879</v>
       </c>
       <c r="KI5" t="n">
-        <v>1230.12458</v>
+        <v>1229.968094</v>
       </c>
       <c r="KJ5" t="n">
-        <v>1220.256851</v>
+        <v>1221.359877</v>
       </c>
       <c r="KK5" t="n">
-        <v>1143.886329</v>
+        <v>1142.467814</v>
       </c>
       <c r="KL5" t="n">
-        <v>1186.484579</v>
+        <v>1186.365424</v>
       </c>
       <c r="KM5" t="n">
-        <v>1292.104749</v>
+        <v>1292.690774</v>
       </c>
       <c r="KN5" t="n">
-        <v>1299.172696</v>
+        <v>1299.203244</v>
       </c>
       <c r="KO5" t="n">
-        <v>1214.837736</v>
+        <v>1215.033564</v>
       </c>
       <c r="KP5" t="n">
-        <v>1240.703851</v>
+        <v>1240.725724</v>
       </c>
       <c r="KQ5" t="n">
-        <v>1292.825273</v>
+        <v>1292.666917</v>
       </c>
       <c r="KR5" t="n">
-        <v>1277.310854</v>
+        <v>1277.286692</v>
       </c>
       <c r="KS5" t="n">
-        <v>1325.714371</v>
+        <v>1325.648939</v>
       </c>
       <c r="KT5" t="n">
-        <v>1323.656795</v>
+        <v>1323.418568</v>
       </c>
       <c r="KU5" t="n">
-        <v>1358.339292</v>
+        <v>1358.336728</v>
       </c>
       <c r="KV5" t="n">
-        <v>1418.860449</v>
+        <v>1420.886516</v>
       </c>
       <c r="KW5" t="n">
-        <v>1317.814229</v>
+        <v>1316.089941</v>
       </c>
       <c r="KX5" t="n">
-        <v>1307.547708</v>
+        <v>1307.420703</v>
       </c>
       <c r="KY5" t="n">
-        <v>1178.292463</v>
+        <v>1178.642523</v>
       </c>
       <c r="KZ5" t="n">
-        <v>1241.140084</v>
+        <v>1241.146796</v>
       </c>
       <c r="LA5" t="n">
-        <v>1245.652461</v>
+        <v>1245.37672</v>
       </c>
       <c r="LB5" t="n">
-        <v>1272.466674</v>
+        <v>1272.328132</v>
       </c>
       <c r="LC5" t="n">
-        <v>1259.955073</v>
+        <v>1260.042577</v>
       </c>
       <c r="LD5" t="n">
-        <v>1236.412548</v>
+        <v>1236.124894</v>
       </c>
       <c r="LE5" t="n">
-        <v>1242.692422</v>
+        <v>1242.958177</v>
       </c>
       <c r="LF5" t="n">
-        <v>1334.005935</v>
+        <v>1334.309374</v>
       </c>
       <c r="LG5" t="n">
-        <v>1227.565821</v>
+        <v>1227.43356</v>
       </c>
       <c r="LH5" t="n">
-        <v>1211.135283</v>
+        <v>1212.504477</v>
       </c>
       <c r="LI5" t="n">
-        <v>1054.739751</v>
+        <v>1052.893006</v>
       </c>
       <c r="LJ5" t="n">
-        <v>1044.87304</v>
+        <v>1044.959369</v>
       </c>
       <c r="LK5" t="n">
-        <v>1016.116259</v>
+        <v>1016.553737</v>
       </c>
       <c r="LL5" t="n">
-        <v>1078.423119</v>
+        <v>1078.531625</v>
       </c>
       <c r="LM5" t="n">
-        <v>1053.637087</v>
+        <v>1053.852989</v>
       </c>
       <c r="LN5" t="n">
-        <v>1068.029303</v>
+        <v>1068.166988</v>
       </c>
       <c r="LO5" t="n">
-        <v>1060.250592</v>
+        <v>1059.808806</v>
       </c>
       <c r="LP5" t="n">
-        <v>1081.191155</v>
+        <v>1081.478011</v>
       </c>
       <c r="LQ5" t="n">
-        <v>1083.378272</v>
+        <v>1083.15094</v>
       </c>
       <c r="LR5" t="n">
-        <v>1127.59127</v>
+        <v>1127.838942</v>
       </c>
       <c r="LS5" t="n">
-        <v>1140.642201</v>
+        <v>1140.189579</v>
       </c>
       <c r="LT5" t="n">
-        <v>1191.617142</v>
+        <v>1192.299774</v>
       </c>
       <c r="LU5" t="n">
-        <v>1240.884793</v>
+        <v>1238.58623</v>
       </c>
       <c r="LV5" t="n">
-        <v>1206.177311</v>
+        <v>1206.196818</v>
       </c>
       <c r="LW5" t="n">
-        <v>1184.115798</v>
+        <v>1184.757284</v>
       </c>
       <c r="LX5" t="n">
-        <v>1217.997912</v>
+        <v>1218.53352</v>
       </c>
       <c r="LY5" t="n">
-        <v>1217.230317</v>
+        <v>1217.633427</v>
       </c>
       <c r="LZ5" t="n">
-        <v>1187.166832</v>
+        <v>1187.552186</v>
       </c>
       <c r="MA5" t="n">
-        <v>1192.535843</v>
+        <v>1191.899692</v>
       </c>
       <c r="MB5" t="n">
-        <v>1107.266043</v>
+        <v>1107.318809</v>
       </c>
       <c r="MC5" t="n">
-        <v>1263.28054</v>
+        <v>1263.139185</v>
       </c>
       <c r="MD5" t="n">
-        <v>1315.418171</v>
+        <v>1315.586722</v>
       </c>
       <c r="ME5" t="n">
-        <v>1248.646007</v>
+        <v>1248.26412</v>
       </c>
       <c r="MF5" t="n">
-        <v>1234.416346</v>
+        <v>1234.539313</v>
       </c>
       <c r="MG5" t="n">
-        <v>1247.856548</v>
+        <v>1245.20812</v>
       </c>
       <c r="MH5" t="n">
-        <v>1233.030589</v>
+        <v>1232.587505</v>
       </c>
       <c r="MI5" t="n">
-        <v>1281.955337</v>
+        <v>1283.309617</v>
       </c>
       <c r="MJ5" t="n">
-        <v>1248.805778</v>
+        <v>1250.249654</v>
       </c>
       <c r="MK5" t="n">
-        <v>1327.100248</v>
+        <v>1329.565901</v>
       </c>
       <c r="ML5" t="n">
-        <v>1270.881284</v>
+        <v>1272.803508</v>
       </c>
       <c r="MM5" t="n">
-        <v>1267.859639</v>
+        <v>1265.401818</v>
       </c>
       <c r="MN5" t="n">
-        <v>1326.827561</v>
+        <v>1326.724426</v>
       </c>
       <c r="MO5" t="n">
-        <v>1417.100344</v>
+        <v>1416.489615</v>
       </c>
       <c r="MP5" t="n">
-        <v>1229.502531</v>
+        <v>1229.137548</v>
       </c>
       <c r="MQ5" t="n">
-        <v>1190.57469</v>
+        <v>1189.498482</v>
       </c>
       <c r="MR5" t="n">
-        <v>1324.287404</v>
+        <v>1323.482991</v>
       </c>
       <c r="MS5" t="n">
-        <v>1237.46032</v>
+        <v>1234.676704</v>
       </c>
       <c r="MT5" t="n">
-        <v>1339.909483</v>
+        <v>1339.23649</v>
       </c>
       <c r="MU5" t="n">
-        <v>1304.201853</v>
+        <v>1305.636742</v>
       </c>
       <c r="MV5" t="n">
-        <v>1303.162806</v>
+        <v>1304.764352</v>
       </c>
       <c r="MW5" t="n">
-        <v>1329.15106</v>
+        <v>1332.725448</v>
       </c>
       <c r="MX5" t="n">
-        <v>1339.978703</v>
+        <v>1343.448436</v>
       </c>
       <c r="MY5" t="n">
-        <v>1378.225857</v>
+        <v>1374.35237</v>
       </c>
       <c r="MZ5" t="n">
-        <v>1320.889536</v>
+        <v>1320.460786</v>
       </c>
       <c r="NA5" t="n">
-        <v>1404.027458</v>
+        <v>1403.086663</v>
       </c>
       <c r="NB5" t="n">
-        <v>1269.282389</v>
+        <v>1268.095049</v>
       </c>
       <c r="NC5" t="n">
-        <v>1357.229342</v>
+        <v>1356.255268</v>
       </c>
       <c r="ND5" t="n">
-        <v>1270.70374</v>
+        <v>1269.225859</v>
       </c>
       <c r="NE5" t="n">
-        <v>1201.825238</v>
+        <v>1199.71311</v>
       </c>
       <c r="NF5" t="n">
-        <v>1157.572406</v>
+        <v>1156.577333</v>
       </c>
       <c r="NG5" t="n">
-        <v>1216.638433</v>
+        <v>1218.514118</v>
       </c>
       <c r="NH5" t="n">
-        <v>1233.574301</v>
+        <v>1235.972618</v>
       </c>
       <c r="NI5" t="n">
-        <v>1178.052126</v>
+        <v>1182.900522</v>
       </c>
       <c r="NJ5" t="n">
-        <v>1231.701</v>
+        <v>1236.590862</v>
       </c>
       <c r="NK5" t="n">
-        <v>1257.544984</v>
+        <v>1251.363476</v>
       </c>
       <c r="NL5" t="n">
-        <v>1278.218281</v>
+        <v>1278.217305</v>
       </c>
       <c r="NM5" t="n">
-        <v>1237.869312</v>
+        <v>1236.864188</v>
       </c>
       <c r="NN5" t="n">
-        <v>1272.921733</v>
+        <v>1271.937216</v>
       </c>
       <c r="NO5" t="n">
-        <v>1215.510264</v>
+        <v>1214.948084</v>
       </c>
       <c r="NP5" t="n">
-        <v>1312.073826</v>
+        <v>1308.77206</v>
       </c>
       <c r="NQ5" t="n">
-        <v>1476.507956</v>
+        <v>1473.096354</v>
       </c>
       <c r="NR5" t="n">
-        <v>1467.467534</v>
+        <v>1464.875328</v>
       </c>
       <c r="NS5" t="n">
-        <v>1557.980225</v>
+        <v>1559.653329</v>
       </c>
       <c r="NT5" t="n">
-        <v>1700.379464</v>
+        <v>1699.914319</v>
       </c>
       <c r="NU5" t="n">
-        <v>1567.560548</v>
+        <v>1571.824451</v>
       </c>
       <c r="NV5" t="n">
-        <v>1589.794301</v>
+        <v>1602.409145</v>
+      </c>
+      <c r="NW5" t="n">
+        <v>1613.973134</v>
       </c>
     </row>
     <row r="6">
@@ -7296,331 +7313,334 @@
         <v>912.554053</v>
       </c>
       <c r="JR6" t="n">
-        <v>959.538078</v>
+        <v>959.542231</v>
       </c>
       <c r="JS6" t="n">
-        <v>938.758439</v>
+        <v>938.699118</v>
       </c>
       <c r="JT6" t="n">
-        <v>954.790748</v>
+        <v>954.744705</v>
       </c>
       <c r="JU6" t="n">
-        <v>981.612959</v>
+        <v>981.558827</v>
       </c>
       <c r="JV6" t="n">
-        <v>1034.828604</v>
+        <v>1034.614499</v>
       </c>
       <c r="JW6" t="n">
-        <v>991.576985</v>
+        <v>991.539615</v>
       </c>
       <c r="JX6" t="n">
-        <v>1028.502813</v>
+        <v>1028.544815</v>
       </c>
       <c r="JY6" t="n">
-        <v>965.222886</v>
+        <v>965.290873</v>
       </c>
       <c r="JZ6" t="n">
-        <v>987.301654</v>
+        <v>987.4238800000001</v>
       </c>
       <c r="KA6" t="n">
-        <v>948.338546</v>
+        <v>948.515352</v>
       </c>
       <c r="KB6" t="n">
-        <v>944.821867</v>
+        <v>944.861253</v>
       </c>
       <c r="KC6" t="n">
-        <v>947.120577</v>
+        <v>947.241538</v>
       </c>
       <c r="KD6" t="n">
-        <v>967.441951</v>
+        <v>967.365461</v>
       </c>
       <c r="KE6" t="n">
-        <v>931.987435</v>
+        <v>931.787188</v>
       </c>
       <c r="KF6" t="n">
-        <v>951.088045</v>
+        <v>950.9115870000001</v>
       </c>
       <c r="KG6" t="n">
-        <v>984.4466</v>
+        <v>984.300923</v>
       </c>
       <c r="KH6" t="n">
-        <v>885.882378</v>
+        <v>885.6183600000001</v>
       </c>
       <c r="KI6" t="n">
-        <v>960.571413</v>
+        <v>960.5061899999999</v>
       </c>
       <c r="KJ6" t="n">
-        <v>921.193306</v>
+        <v>921.203964</v>
       </c>
       <c r="KK6" t="n">
-        <v>932.848394</v>
+        <v>932.946911</v>
       </c>
       <c r="KL6" t="n">
-        <v>935.24706</v>
+        <v>935.515773</v>
       </c>
       <c r="KM6" t="n">
-        <v>965.255801</v>
+        <v>965.55315</v>
       </c>
       <c r="KN6" t="n">
-        <v>1002.760084</v>
+        <v>1003.467356</v>
       </c>
       <c r="KO6" t="n">
-        <v>986.676797</v>
+        <v>987.0981430000001</v>
       </c>
       <c r="KP6" t="n">
-        <v>991.646234</v>
+        <v>991.746397</v>
       </c>
       <c r="KQ6" t="n">
-        <v>1004.10215</v>
+        <v>1001.867717</v>
       </c>
       <c r="KR6" t="n">
-        <v>986.425695</v>
+        <v>986.461863</v>
       </c>
       <c r="KS6" t="n">
-        <v>1038.743031</v>
+        <v>1038.749673</v>
       </c>
       <c r="KT6" t="n">
-        <v>999.2784380000001</v>
+        <v>999.082485</v>
       </c>
       <c r="KU6" t="n">
-        <v>1030.446958</v>
+        <v>1030.513219</v>
       </c>
       <c r="KV6" t="n">
-        <v>1046.953329</v>
+        <v>1046.976939</v>
       </c>
       <c r="KW6" t="n">
-        <v>1045.493905</v>
+        <v>1045.745102</v>
       </c>
       <c r="KX6" t="n">
-        <v>1072.025959</v>
+        <v>1072.478094</v>
       </c>
       <c r="KY6" t="n">
-        <v>1069.494272</v>
+        <v>1069.966531</v>
       </c>
       <c r="KZ6" t="n">
-        <v>1058.502865</v>
+        <v>1060.00208</v>
       </c>
       <c r="LA6" t="n">
-        <v>979.098298</v>
+        <v>979.883343</v>
       </c>
       <c r="LB6" t="n">
-        <v>1043.379165</v>
+        <v>1043.760983</v>
       </c>
       <c r="LC6" t="n">
-        <v>1076.967589</v>
+        <v>1072.116867</v>
       </c>
       <c r="LD6" t="n">
-        <v>1067.049884</v>
+        <v>1067.246634</v>
       </c>
       <c r="LE6" t="n">
-        <v>1046.2318</v>
+        <v>1046.47163</v>
       </c>
       <c r="LF6" t="n">
-        <v>1068.897913</v>
+        <v>1069.003735</v>
       </c>
       <c r="LG6" t="n">
-        <v>1100.698116</v>
+        <v>1100.88066</v>
       </c>
       <c r="LH6" t="n">
-        <v>1121.380523</v>
+        <v>1121.439059</v>
       </c>
       <c r="LI6" t="n">
-        <v>1159.527973</v>
+        <v>1159.957838</v>
       </c>
       <c r="LJ6" t="n">
-        <v>1164.246737</v>
+        <v>1164.944063</v>
       </c>
       <c r="LK6" t="n">
-        <v>1158.490848</v>
+        <v>1159.285421</v>
       </c>
       <c r="LL6" t="n">
-        <v>1128.931694</v>
+        <v>1131.350782</v>
       </c>
       <c r="LM6" t="n">
-        <v>1246.035001</v>
+        <v>1247.162576</v>
       </c>
       <c r="LN6" t="n">
-        <v>1168.093395</v>
+        <v>1168.825645</v>
       </c>
       <c r="LO6" t="n">
-        <v>1208.912341</v>
+        <v>1200.908805</v>
       </c>
       <c r="LP6" t="n">
-        <v>1185.005534</v>
+        <v>1185.231309</v>
       </c>
       <c r="LQ6" t="n">
-        <v>1174.892358</v>
+        <v>1175.096446</v>
       </c>
       <c r="LR6" t="n">
-        <v>1183.137254</v>
+        <v>1183.315403</v>
       </c>
       <c r="LS6" t="n">
-        <v>1145.910554</v>
+        <v>1146.091586</v>
       </c>
       <c r="LT6" t="n">
-        <v>1138.044061</v>
+        <v>1138.240154</v>
       </c>
       <c r="LU6" t="n">
-        <v>1097.661134</v>
+        <v>1098.352736</v>
       </c>
       <c r="LV6" t="n">
-        <v>1107.38077</v>
+        <v>1108.528893</v>
       </c>
       <c r="LW6" t="n">
-        <v>1109.394384</v>
+        <v>1110.908218</v>
       </c>
       <c r="LX6" t="n">
-        <v>1146.343794</v>
+        <v>1149.582629</v>
       </c>
       <c r="LY6" t="n">
-        <v>1118.203236</v>
+        <v>1119.958096</v>
       </c>
       <c r="LZ6" t="n">
-        <v>1114.922768</v>
+        <v>1116.212198</v>
       </c>
       <c r="MA6" t="n">
-        <v>1066.014845</v>
+        <v>1054.270948</v>
       </c>
       <c r="MB6" t="n">
-        <v>1120.688406</v>
+        <v>1120.741474</v>
       </c>
       <c r="MC6" t="n">
-        <v>1106.235372</v>
+        <v>1106.924389</v>
       </c>
       <c r="MD6" t="n">
-        <v>1147.878606</v>
+        <v>1147.795004</v>
       </c>
       <c r="ME6" t="n">
-        <v>1117.869048</v>
+        <v>1117.744777</v>
       </c>
       <c r="MF6" t="n">
-        <v>1055.966367</v>
+        <v>1056.232321</v>
       </c>
       <c r="MG6" t="n">
-        <v>1137.575442</v>
+        <v>1138.287055</v>
       </c>
       <c r="MH6" t="n">
-        <v>1113.485998</v>
+        <v>1115.012008</v>
       </c>
       <c r="MI6" t="n">
-        <v>1115.007122</v>
+        <v>1117.485223</v>
       </c>
       <c r="MJ6" t="n">
-        <v>1107.28765</v>
+        <v>1112.0404</v>
       </c>
       <c r="MK6" t="n">
-        <v>1148.224214</v>
+        <v>1151.696117</v>
       </c>
       <c r="ML6" t="n">
-        <v>1145.526568</v>
+        <v>1149.12643</v>
       </c>
       <c r="MM6" t="n">
-        <v>1163.918627</v>
+        <v>1145.646693</v>
       </c>
       <c r="MN6" t="n">
-        <v>1074.432282</v>
+        <v>1073.887032</v>
       </c>
       <c r="MO6" t="n">
-        <v>1141.496205</v>
+        <v>1142.429205</v>
       </c>
       <c r="MP6" t="n">
-        <v>1130.89504</v>
+        <v>1130.55222</v>
       </c>
       <c r="MQ6" t="n">
-        <v>1120.333285</v>
+        <v>1119.875936</v>
       </c>
       <c r="MR6" t="n">
-        <v>1142.683811</v>
+        <v>1143.026345</v>
       </c>
       <c r="MS6" t="n">
-        <v>1226.678893</v>
+        <v>1227.47619</v>
       </c>
       <c r="MT6" t="n">
-        <v>1094.093555</v>
+        <v>1096.098335</v>
       </c>
       <c r="MU6" t="n">
-        <v>1182.977893</v>
+        <v>1186.465038</v>
       </c>
       <c r="MV6" t="n">
-        <v>1152.845746</v>
+        <v>1158.731048</v>
       </c>
       <c r="MW6" t="n">
-        <v>1170.929491</v>
+        <v>1176.337159</v>
       </c>
       <c r="MX6" t="n">
-        <v>1190.414966</v>
+        <v>1196.449301</v>
       </c>
       <c r="MY6" t="n">
-        <v>1221.339167</v>
+        <v>1197.439166</v>
       </c>
       <c r="MZ6" t="n">
-        <v>1091.622508</v>
+        <v>1090.177812</v>
       </c>
       <c r="NA6" t="n">
-        <v>1089.992196</v>
+        <v>1091.03817</v>
       </c>
       <c r="NB6" t="n">
-        <v>1177.003875</v>
+        <v>1176.10207</v>
       </c>
       <c r="NC6" t="n">
-        <v>1260.531029</v>
+        <v>1259.739142</v>
       </c>
       <c r="ND6" t="n">
-        <v>1151.115738</v>
+        <v>1151.395193</v>
       </c>
       <c r="NE6" t="n">
-        <v>1169.751876</v>
+        <v>1170.486389</v>
       </c>
       <c r="NF6" t="n">
-        <v>1155.621942</v>
+        <v>1157.93538</v>
       </c>
       <c r="NG6" t="n">
-        <v>1165.080305</v>
+        <v>1169.32766</v>
       </c>
       <c r="NH6" t="n">
-        <v>1161.637506</v>
+        <v>1168.334838</v>
       </c>
       <c r="NI6" t="n">
-        <v>1157.965457</v>
+        <v>1165.316891</v>
       </c>
       <c r="NJ6" t="n">
-        <v>1168.172986</v>
+        <v>1176.719373</v>
       </c>
       <c r="NK6" t="n">
-        <v>1150.305809</v>
+        <v>1122.288737</v>
       </c>
       <c r="NL6" t="n">
-        <v>1376.532546</v>
+        <v>1374.051809</v>
       </c>
       <c r="NM6" t="n">
-        <v>1368.374496</v>
+        <v>1369.565542</v>
       </c>
       <c r="NN6" t="n">
-        <v>1291.537641</v>
+        <v>1290.549964</v>
       </c>
       <c r="NO6" t="n">
-        <v>1309.53821</v>
+        <v>1308.974568</v>
       </c>
       <c r="NP6" t="n">
-        <v>1351.993684</v>
+        <v>1352.322439</v>
       </c>
       <c r="NQ6" t="n">
-        <v>1313.86554</v>
+        <v>1314.402101</v>
       </c>
       <c r="NR6" t="n">
-        <v>1346.860275</v>
+        <v>1348.436193</v>
       </c>
       <c r="NS6" t="n">
-        <v>1301.639406</v>
+        <v>1304.099072</v>
       </c>
       <c r="NT6" t="n">
-        <v>1366.329049</v>
+        <v>1369.342137</v>
       </c>
       <c r="NU6" t="n">
-        <v>1333.855873</v>
+        <v>1337.807963</v>
       </c>
       <c r="NV6" t="n">
-        <v>1361.115184</v>
+        <v>1367.796316</v>
+      </c>
+      <c r="NW6" t="n">
+        <v>1425.707351</v>
       </c>
     </row>
     <row r="7">
@@ -8218,331 +8238,334 @@
         <v>919.945183</v>
       </c>
       <c r="JR7" t="n">
-        <v>805.093036</v>
+        <v>805.183252</v>
       </c>
       <c r="JS7" t="n">
-        <v>779.870436</v>
+        <v>779.878426</v>
       </c>
       <c r="JT7" t="n">
-        <v>743.295939</v>
+        <v>743.327495</v>
       </c>
       <c r="JU7" t="n">
-        <v>769.827048</v>
+        <v>769.643445</v>
       </c>
       <c r="JV7" t="n">
-        <v>762.3105849999999</v>
+        <v>762.2251189999999</v>
       </c>
       <c r="JW7" t="n">
-        <v>725.975902</v>
+        <v>725.696745</v>
       </c>
       <c r="JX7" t="n">
-        <v>819.8297679999999</v>
+        <v>820.264407</v>
       </c>
       <c r="JY7" t="n">
-        <v>804.569596</v>
+        <v>804.717867</v>
       </c>
       <c r="JZ7" t="n">
-        <v>819.249139</v>
+        <v>819.1709949999999</v>
       </c>
       <c r="KA7" t="n">
-        <v>799.8982569999999</v>
+        <v>799.6654119999999</v>
       </c>
       <c r="KB7" t="n">
-        <v>785.359958</v>
+        <v>785.1850480000001</v>
       </c>
       <c r="KC7" t="n">
-        <v>854.627956</v>
+        <v>854.518027</v>
       </c>
       <c r="KD7" t="n">
-        <v>823.340321</v>
+        <v>823.345643</v>
       </c>
       <c r="KE7" t="n">
-        <v>783.914811</v>
+        <v>783.960003</v>
       </c>
       <c r="KF7" t="n">
-        <v>731.13051</v>
+        <v>731.3159450000001</v>
       </c>
       <c r="KG7" t="n">
-        <v>712.7257970000001</v>
+        <v>712.5863450000001</v>
       </c>
       <c r="KH7" t="n">
-        <v>817.553493</v>
+        <v>817.825631</v>
       </c>
       <c r="KI7" t="n">
-        <v>848.303565</v>
+        <v>848.0328919999999</v>
       </c>
       <c r="KJ7" t="n">
-        <v>818.51049</v>
+        <v>818.990868</v>
       </c>
       <c r="KK7" t="n">
-        <v>924.052692</v>
+        <v>924.55445</v>
       </c>
       <c r="KL7" t="n">
-        <v>956.911646</v>
+        <v>956.366099</v>
       </c>
       <c r="KM7" t="n">
-        <v>901.076928</v>
+        <v>898.387185</v>
       </c>
       <c r="KN7" t="n">
-        <v>897.272548</v>
+        <v>897.355431</v>
       </c>
       <c r="KO7" t="n">
-        <v>828.111007</v>
+        <v>828.06817</v>
       </c>
       <c r="KP7" t="n">
-        <v>845.31774</v>
+        <v>845.255331</v>
       </c>
       <c r="KQ7" t="n">
-        <v>814.1648709999999</v>
+        <v>814.785711</v>
       </c>
       <c r="KR7" t="n">
-        <v>784.832888</v>
+        <v>785.180969</v>
       </c>
       <c r="KS7" t="n">
-        <v>682.831921</v>
+        <v>682.8898819999999</v>
       </c>
       <c r="KT7" t="n">
-        <v>698.5537399999999</v>
+        <v>698.674319</v>
       </c>
       <c r="KU7" t="n">
-        <v>664.449798</v>
+        <v>664.523366</v>
       </c>
       <c r="KV7" t="n">
-        <v>741.822726</v>
+        <v>742.475717</v>
       </c>
       <c r="KW7" t="n">
-        <v>679.7702389999999</v>
+        <v>680.137871</v>
       </c>
       <c r="KX7" t="n">
-        <v>652.34518</v>
+        <v>651.986543</v>
       </c>
       <c r="KY7" t="n">
-        <v>714.521867</v>
+        <v>712.147275</v>
       </c>
       <c r="KZ7" t="n">
-        <v>775.389015</v>
+        <v>775.414394</v>
       </c>
       <c r="LA7" t="n">
-        <v>701.789885</v>
+        <v>701.586104</v>
       </c>
       <c r="LB7" t="n">
-        <v>621.818428</v>
+        <v>621.455891</v>
       </c>
       <c r="LC7" t="n">
-        <v>564.815383</v>
+        <v>565.49536</v>
       </c>
       <c r="LD7" t="n">
-        <v>570.729096</v>
+        <v>571.098029</v>
       </c>
       <c r="LE7" t="n">
-        <v>525.316827</v>
+        <v>525.547014</v>
       </c>
       <c r="LF7" t="n">
-        <v>518.129635</v>
+        <v>518.294145</v>
       </c>
       <c r="LG7" t="n">
-        <v>560.618257</v>
+        <v>560.823381</v>
       </c>
       <c r="LH7" t="n">
-        <v>546.238395</v>
+        <v>546.479749</v>
       </c>
       <c r="LI7" t="n">
-        <v>554.99493</v>
+        <v>555.300106</v>
       </c>
       <c r="LJ7" t="n">
-        <v>702.826686</v>
+        <v>702.200164</v>
       </c>
       <c r="LK7" t="n">
-        <v>601.479657</v>
+        <v>597.306571</v>
       </c>
       <c r="LL7" t="n">
-        <v>692.502717</v>
+        <v>692.731418</v>
       </c>
       <c r="LM7" t="n">
-        <v>682.250094</v>
+        <v>681.973334</v>
       </c>
       <c r="LN7" t="n">
-        <v>778.594162</v>
+        <v>778.034214</v>
       </c>
       <c r="LO7" t="n">
-        <v>743.241373</v>
+        <v>744.102399</v>
       </c>
       <c r="LP7" t="n">
-        <v>788.291064</v>
+        <v>789.249815</v>
       </c>
       <c r="LQ7" t="n">
-        <v>754.175108</v>
+        <v>754.808417</v>
       </c>
       <c r="LR7" t="n">
-        <v>791.061613</v>
+        <v>792.2105299999999</v>
       </c>
       <c r="LS7" t="n">
-        <v>699.906792</v>
+        <v>701.052355</v>
       </c>
       <c r="LT7" t="n">
-        <v>741.990186</v>
+        <v>743.076683</v>
       </c>
       <c r="LU7" t="n">
-        <v>757.036303</v>
+        <v>758.31574</v>
       </c>
       <c r="LV7" t="n">
-        <v>733.045135</v>
+        <v>733.058327</v>
       </c>
       <c r="LW7" t="n">
-        <v>894.18034</v>
+        <v>875.418331</v>
       </c>
       <c r="LX7" t="n">
-        <v>813.370561</v>
+        <v>813.556998</v>
       </c>
       <c r="LY7" t="n">
-        <v>805.7927</v>
+        <v>805.615711</v>
       </c>
       <c r="LZ7" t="n">
-        <v>885.741632</v>
+        <v>885.535788</v>
       </c>
       <c r="MA7" t="n">
-        <v>887.5660329999999</v>
+        <v>890.9907930000001</v>
       </c>
       <c r="MB7" t="n">
-        <v>747.057721</v>
+        <v>748.494085</v>
       </c>
       <c r="MC7" t="n">
-        <v>791.332012</v>
+        <v>792.906735</v>
       </c>
       <c r="MD7" t="n">
-        <v>902.4066350000001</v>
+        <v>903.745125</v>
       </c>
       <c r="ME7" t="n">
-        <v>947.940521</v>
+        <v>949.802852</v>
       </c>
       <c r="MF7" t="n">
-        <v>952.635771</v>
+        <v>954.1102509999999</v>
       </c>
       <c r="MG7" t="n">
-        <v>851.692761</v>
+        <v>852.964384</v>
       </c>
       <c r="MH7" t="n">
-        <v>1106.001691</v>
+        <v>1107.129294</v>
       </c>
       <c r="MI7" t="n">
-        <v>982.429806</v>
+        <v>961.061838</v>
       </c>
       <c r="MJ7" t="n">
-        <v>823.934659</v>
+        <v>823.631048</v>
       </c>
       <c r="MK7" t="n">
-        <v>966.658442</v>
+        <v>967.403945</v>
       </c>
       <c r="ML7" t="n">
-        <v>811.507968</v>
+        <v>811.975083</v>
       </c>
       <c r="MM7" t="n">
-        <v>935.456814</v>
+        <v>940.336238</v>
       </c>
       <c r="MN7" t="n">
-        <v>982.743097</v>
+        <v>987.12726</v>
       </c>
       <c r="MO7" t="n">
-        <v>874.292689</v>
+        <v>878.1147</v>
       </c>
       <c r="MP7" t="n">
-        <v>990.291892</v>
+        <v>992.188324</v>
       </c>
       <c r="MQ7" t="n">
-        <v>856.548614</v>
+        <v>859.361057</v>
       </c>
       <c r="MR7" t="n">
-        <v>843.998571</v>
+        <v>846.23454</v>
       </c>
       <c r="MS7" t="n">
-        <v>831.071856</v>
+        <v>832.994085</v>
       </c>
       <c r="MT7" t="n">
-        <v>786.2158920000001</v>
+        <v>786.964146</v>
       </c>
       <c r="MU7" t="n">
-        <v>853.593666</v>
+        <v>816.554878</v>
       </c>
       <c r="MV7" t="n">
-        <v>661.281546</v>
+        <v>659.813867</v>
       </c>
       <c r="MW7" t="n">
-        <v>638.91779</v>
+        <v>639.090817</v>
       </c>
       <c r="MX7" t="n">
-        <v>741.019771</v>
+        <v>740.815984</v>
       </c>
       <c r="MY7" t="n">
-        <v>740.3076160000001</v>
+        <v>744.387685</v>
       </c>
       <c r="MZ7" t="n">
-        <v>593.63474</v>
+        <v>596.608642</v>
       </c>
       <c r="NA7" t="n">
-        <v>426.007006</v>
+        <v>428.488497</v>
       </c>
       <c r="NB7" t="n">
-        <v>486.907888</v>
+        <v>487.640902</v>
       </c>
       <c r="NC7" t="n">
-        <v>541.903907</v>
+        <v>543.577816</v>
       </c>
       <c r="ND7" t="n">
-        <v>602.8232410000001</v>
+        <v>603.976679</v>
       </c>
       <c r="NE7" t="n">
-        <v>714.824739</v>
+        <v>715.989584</v>
       </c>
       <c r="NF7" t="n">
-        <v>591.780901</v>
+        <v>591.857188</v>
       </c>
       <c r="NG7" t="n">
-        <v>648.616945</v>
+        <v>640.958106</v>
       </c>
       <c r="NH7" t="n">
-        <v>729.531494</v>
+        <v>727.983066</v>
       </c>
       <c r="NI7" t="n">
-        <v>754.214607</v>
+        <v>753.509626</v>
       </c>
       <c r="NJ7" t="n">
-        <v>936.854468</v>
+        <v>935.256967</v>
       </c>
       <c r="NK7" t="n">
-        <v>843.328363</v>
+        <v>846.244747</v>
       </c>
       <c r="NL7" t="n">
-        <v>877.3546270000001</v>
+        <v>879.747894</v>
       </c>
       <c r="NM7" t="n">
-        <v>901.035005</v>
+        <v>904.004808</v>
       </c>
       <c r="NN7" t="n">
-        <v>994.467656</v>
+        <v>995.008684</v>
       </c>
       <c r="NO7" t="n">
-        <v>1207.825457</v>
+        <v>1209.088024</v>
       </c>
       <c r="NP7" t="n">
-        <v>1357.117473</v>
+        <v>1358.815957</v>
       </c>
       <c r="NQ7" t="n">
-        <v>1424.472487</v>
+        <v>1425.007761</v>
       </c>
       <c r="NR7" t="n">
-        <v>1747.63347</v>
+        <v>1748.059691</v>
       </c>
       <c r="NS7" t="n">
-        <v>1788.576592</v>
+        <v>1789.071563</v>
       </c>
       <c r="NT7" t="n">
-        <v>1768.394663</v>
+        <v>1750.904343</v>
       </c>
       <c r="NU7" t="n">
-        <v>1652.918959</v>
+        <v>1653.047396</v>
       </c>
       <c r="NV7" t="n">
-        <v>1686.823849</v>
+        <v>1689.787633</v>
+      </c>
+      <c r="NW7" t="n">
+        <v>1777.550734</v>
       </c>
     </row>
     <row r="8">
@@ -9140,331 +9163,334 @@
         <v>4586.045546</v>
       </c>
       <c r="JR8" t="n">
-        <v>5131.255291</v>
+        <v>5136.306039</v>
       </c>
       <c r="JS8" t="n">
-        <v>5181.294704</v>
+        <v>5181.260569</v>
       </c>
       <c r="JT8" t="n">
-        <v>4857.114641</v>
+        <v>4855.033035</v>
       </c>
       <c r="JU8" t="n">
-        <v>5139.099004</v>
+        <v>5138.725843</v>
       </c>
       <c r="JV8" t="n">
-        <v>5286.018639</v>
+        <v>5285.06054</v>
       </c>
       <c r="JW8" t="n">
-        <v>4497.534444</v>
+        <v>4495.639733</v>
       </c>
       <c r="JX8" t="n">
-        <v>4855.384163</v>
+        <v>4856.303165</v>
       </c>
       <c r="JY8" t="n">
-        <v>4717.450322</v>
+        <v>4716.059517</v>
       </c>
       <c r="JZ8" t="n">
-        <v>5107.755212</v>
+        <v>5105.194121</v>
       </c>
       <c r="KA8" t="n">
-        <v>3928.342354</v>
+        <v>3929.633469</v>
       </c>
       <c r="KB8" t="n">
-        <v>4649.650594</v>
+        <v>4647.996565</v>
       </c>
       <c r="KC8" t="n">
-        <v>4656.585193</v>
+        <v>4656.26499</v>
       </c>
       <c r="KD8" t="n">
-        <v>5062.908543</v>
+        <v>5067.97395</v>
       </c>
       <c r="KE8" t="n">
-        <v>3686.155375</v>
+        <v>3686.621454</v>
       </c>
       <c r="KF8" t="n">
-        <v>4378.122315</v>
+        <v>4375.912822</v>
       </c>
       <c r="KG8" t="n">
-        <v>4257.90185</v>
+        <v>4257.740851</v>
       </c>
       <c r="KH8" t="n">
-        <v>4089.528645</v>
+        <v>4089.2338</v>
       </c>
       <c r="KI8" t="n">
-        <v>4129.297676</v>
+        <v>4127.250058</v>
       </c>
       <c r="KJ8" t="n">
-        <v>4314.551869</v>
+        <v>4312.858872</v>
       </c>
       <c r="KK8" t="n">
-        <v>4021.853745</v>
+        <v>4018.931258</v>
       </c>
       <c r="KL8" t="n">
-        <v>4014.90898</v>
+        <v>4014.993869</v>
       </c>
       <c r="KM8" t="n">
-        <v>3961.551598</v>
+        <v>3963.406722</v>
       </c>
       <c r="KN8" t="n">
-        <v>3362.73668</v>
+        <v>3362.078676</v>
       </c>
       <c r="KO8" t="n">
-        <v>3569.580013</v>
+        <v>3570.327044</v>
       </c>
       <c r="KP8" t="n">
-        <v>3240.204651</v>
+        <v>3241.890067</v>
       </c>
       <c r="KQ8" t="n">
-        <v>3063.092971</v>
+        <v>3063.812834</v>
       </c>
       <c r="KR8" t="n">
-        <v>4231.480548</v>
+        <v>4230.633124</v>
       </c>
       <c r="KS8" t="n">
-        <v>3355.639179</v>
+        <v>3355.665583</v>
       </c>
       <c r="KT8" t="n">
-        <v>3421.805922</v>
+        <v>3418.972878</v>
       </c>
       <c r="KU8" t="n">
-        <v>3295.897784</v>
+        <v>3296.312007</v>
       </c>
       <c r="KV8" t="n">
-        <v>3075.642333</v>
+        <v>3073.67892</v>
       </c>
       <c r="KW8" t="n">
-        <v>2825.960111</v>
+        <v>2824.656863</v>
       </c>
       <c r="KX8" t="n">
-        <v>3004.914726</v>
+        <v>3005.169006</v>
       </c>
       <c r="KY8" t="n">
-        <v>2925.668235</v>
+        <v>2926.697226</v>
       </c>
       <c r="KZ8" t="n">
-        <v>2616.608376</v>
+        <v>2616.910167</v>
       </c>
       <c r="LA8" t="n">
-        <v>2681.094049</v>
+        <v>2684.254004</v>
       </c>
       <c r="LB8" t="n">
-        <v>2222.439072</v>
+        <v>2222.369604</v>
       </c>
       <c r="LC8" t="n">
-        <v>2157.535751</v>
+        <v>2157.971329</v>
       </c>
       <c r="LD8" t="n">
-        <v>2445.082905</v>
+        <v>2443.813789</v>
       </c>
       <c r="LE8" t="n">
-        <v>2277.395934</v>
+        <v>2277.54097</v>
       </c>
       <c r="LF8" t="n">
-        <v>2012.333154</v>
+        <v>2012.795181</v>
       </c>
       <c r="LG8" t="n">
-        <v>1697.403504</v>
+        <v>1697.311334</v>
       </c>
       <c r="LH8" t="n">
-        <v>2741.881061</v>
+        <v>2736.530788</v>
       </c>
       <c r="LI8" t="n">
-        <v>2772.505631</v>
+        <v>2771.27657</v>
       </c>
       <c r="LJ8" t="n">
-        <v>2631.574136</v>
+        <v>2631.840701</v>
       </c>
       <c r="LK8" t="n">
-        <v>2829.978617</v>
+        <v>2830.546462</v>
       </c>
       <c r="LL8" t="n">
-        <v>3232.11365</v>
+        <v>3232.143732</v>
       </c>
       <c r="LM8" t="n">
-        <v>2983.496244</v>
+        <v>2992.772477</v>
       </c>
       <c r="LN8" t="n">
-        <v>3569.366133</v>
+        <v>3573.004134</v>
       </c>
       <c r="LO8" t="n">
-        <v>3419.90545</v>
+        <v>3417.350327</v>
       </c>
       <c r="LP8" t="n">
-        <v>3012.197228</v>
+        <v>3009.848153</v>
       </c>
       <c r="LQ8" t="n">
-        <v>3170.557747</v>
+        <v>3167.403635</v>
       </c>
       <c r="LR8" t="n">
-        <v>3231.167919</v>
+        <v>3230.418676</v>
       </c>
       <c r="LS8" t="n">
-        <v>2932.265238</v>
+        <v>2929.320253</v>
       </c>
       <c r="LT8" t="n">
-        <v>2689.602929</v>
+        <v>2682.946808</v>
       </c>
       <c r="LU8" t="n">
-        <v>3028.111452</v>
+        <v>3025.180023</v>
       </c>
       <c r="LV8" t="n">
-        <v>2936.915507</v>
+        <v>2935.752602</v>
       </c>
       <c r="LW8" t="n">
-        <v>3054.09738</v>
+        <v>3058.572004</v>
       </c>
       <c r="LX8" t="n">
-        <v>3743.787193</v>
+        <v>3745.423998</v>
       </c>
       <c r="LY8" t="n">
-        <v>3597.156167</v>
+        <v>3619.125364</v>
       </c>
       <c r="LZ8" t="n">
-        <v>3569.690764</v>
+        <v>3575.549974</v>
       </c>
       <c r="MA8" t="n">
-        <v>3552.789423</v>
+        <v>3547.192738</v>
       </c>
       <c r="MB8" t="n">
-        <v>3311.329757</v>
+        <v>3303.361537</v>
       </c>
       <c r="MC8" t="n">
-        <v>3232.503427</v>
+        <v>3227.776819</v>
       </c>
       <c r="MD8" t="n">
-        <v>3131.94941</v>
+        <v>3126.850607</v>
       </c>
       <c r="ME8" t="n">
-        <v>3711.674292</v>
+        <v>3704.155855</v>
       </c>
       <c r="MF8" t="n">
-        <v>3733.414824</v>
+        <v>3722.419468</v>
       </c>
       <c r="MG8" t="n">
-        <v>3671.558535</v>
+        <v>3663.964922</v>
       </c>
       <c r="MH8" t="n">
-        <v>4551.158976</v>
+        <v>4547.45605</v>
       </c>
       <c r="MI8" t="n">
-        <v>4378.898514</v>
+        <v>4391.477434</v>
       </c>
       <c r="MJ8" t="n">
-        <v>3527.331436</v>
+        <v>3529.700659</v>
       </c>
       <c r="MK8" t="n">
-        <v>3152.923595</v>
+        <v>3191.250375</v>
       </c>
       <c r="ML8" t="n">
-        <v>3593.454652</v>
+        <v>3611.964131</v>
       </c>
       <c r="MM8" t="n">
-        <v>3015.256588</v>
+        <v>2998.008651</v>
       </c>
       <c r="MN8" t="n">
-        <v>4039.477614</v>
+        <v>4021.176515</v>
       </c>
       <c r="MO8" t="n">
-        <v>3716.730428</v>
+        <v>3707.618189</v>
       </c>
       <c r="MP8" t="n">
-        <v>3661.156527</v>
+        <v>3648.175803</v>
       </c>
       <c r="MQ8" t="n">
-        <v>3424.593564</v>
+        <v>3407.911551</v>
       </c>
       <c r="MR8" t="n">
-        <v>3346.651254</v>
+        <v>3335.39074</v>
       </c>
       <c r="MS8" t="n">
-        <v>3287.083105</v>
+        <v>3276.827925</v>
       </c>
       <c r="MT8" t="n">
-        <v>2650.467805</v>
+        <v>2650.641427</v>
       </c>
       <c r="MU8" t="n">
-        <v>2904.130854</v>
+        <v>2916.340719</v>
       </c>
       <c r="MV8" t="n">
-        <v>2839.349669</v>
+        <v>2842.427835</v>
       </c>
       <c r="MW8" t="n">
-        <v>2798.474128</v>
+        <v>2854.708825</v>
       </c>
       <c r="MX8" t="n">
-        <v>2153.213937</v>
+        <v>2174.792335</v>
       </c>
       <c r="MY8" t="n">
-        <v>2264.01836</v>
+        <v>2233.224609</v>
       </c>
       <c r="MZ8" t="n">
-        <v>1778.558175</v>
+        <v>1769.260379</v>
       </c>
       <c r="NA8" t="n">
-        <v>1411.065543</v>
+        <v>1406.145948</v>
       </c>
       <c r="NB8" t="n">
-        <v>1551.656863</v>
+        <v>1542.1018</v>
       </c>
       <c r="NC8" t="n">
-        <v>1636.52095</v>
+        <v>1627.438984</v>
       </c>
       <c r="ND8" t="n">
-        <v>1773.993923</v>
+        <v>1767.03636</v>
       </c>
       <c r="NE8" t="n">
-        <v>1799.799436</v>
+        <v>1793.839226</v>
       </c>
       <c r="NF8" t="n">
-        <v>1879.003781</v>
+        <v>1880.818447</v>
       </c>
       <c r="NG8" t="n">
-        <v>1673.201362</v>
+        <v>1680.235384</v>
       </c>
       <c r="NH8" t="n">
-        <v>1866.967334</v>
+        <v>1872.075678</v>
       </c>
       <c r="NI8" t="n">
-        <v>1696.690958</v>
+        <v>1734.698205</v>
       </c>
       <c r="NJ8" t="n">
-        <v>2154.146282</v>
+        <v>2184.917403</v>
       </c>
       <c r="NK8" t="n">
-        <v>2069.366561</v>
+        <v>2025.113893</v>
       </c>
       <c r="NL8" t="n">
-        <v>2588.462635</v>
+        <v>2572.925391</v>
       </c>
       <c r="NM8" t="n">
-        <v>2721.455209</v>
+        <v>2709.856915</v>
       </c>
       <c r="NN8" t="n">
-        <v>2701.122946</v>
+        <v>2679.851522</v>
       </c>
       <c r="NO8" t="n">
-        <v>2912.743383</v>
+        <v>2890.984459</v>
       </c>
       <c r="NP8" t="n">
-        <v>3395.604749</v>
+        <v>3378.559914</v>
       </c>
       <c r="NQ8" t="n">
-        <v>3598.359692</v>
+        <v>3607.13799</v>
       </c>
       <c r="NR8" t="n">
-        <v>3777.989548</v>
+        <v>3787.213658</v>
       </c>
       <c r="NS8" t="n">
-        <v>4320.017761</v>
+        <v>4377.245785</v>
       </c>
       <c r="NT8" t="n">
-        <v>5239.473437</v>
+        <v>5354.839899</v>
       </c>
       <c r="NU8" t="n">
-        <v>5836.701263</v>
+        <v>5892.324137</v>
       </c>
       <c r="NV8" t="n">
-        <v>6056.535714</v>
+        <v>6204.243057</v>
+      </c>
+      <c r="NW8" t="n">
+        <v>6550.45442</v>
       </c>
     </row>
     <row r="9">
@@ -10062,331 +10088,334 @@
         <v>3604.256948</v>
       </c>
       <c r="JR9" t="n">
-        <v>3728.694989</v>
+        <v>3729.539455</v>
       </c>
       <c r="JS9" t="n">
-        <v>3665.3226</v>
+        <v>3665.639548</v>
       </c>
       <c r="JT9" t="n">
-        <v>3563.373915</v>
+        <v>3564.513551</v>
       </c>
       <c r="JU9" t="n">
-        <v>3723.545304</v>
+        <v>3723.842469</v>
       </c>
       <c r="JV9" t="n">
-        <v>3769.869012</v>
+        <v>3763.288191</v>
       </c>
       <c r="JW9" t="n">
-        <v>3708.014753</v>
+        <v>3707.810188</v>
       </c>
       <c r="JX9" t="n">
-        <v>3627.619193</v>
+        <v>3628.452506</v>
       </c>
       <c r="JY9" t="n">
-        <v>3698.493896</v>
+        <v>3699.375789</v>
       </c>
       <c r="JZ9" t="n">
-        <v>3668.781541</v>
+        <v>3669.451456</v>
       </c>
       <c r="KA9" t="n">
-        <v>3636.413038</v>
+        <v>3636.789682</v>
       </c>
       <c r="KB9" t="n">
-        <v>3646.39171</v>
+        <v>3646.414538</v>
       </c>
       <c r="KC9" t="n">
-        <v>3755.095555</v>
+        <v>3754.373014</v>
       </c>
       <c r="KD9" t="n">
-        <v>3670.732269</v>
+        <v>3671.429891</v>
       </c>
       <c r="KE9" t="n">
-        <v>3708.578996</v>
+        <v>3708.627966</v>
       </c>
       <c r="KF9" t="n">
-        <v>3665.025304</v>
+        <v>3665.977815</v>
       </c>
       <c r="KG9" t="n">
-        <v>3653.643902</v>
+        <v>3653.767061</v>
       </c>
       <c r="KH9" t="n">
-        <v>3612.447604</v>
+        <v>3609.114511</v>
       </c>
       <c r="KI9" t="n">
-        <v>3542.427652</v>
+        <v>3541.987497</v>
       </c>
       <c r="KJ9" t="n">
-        <v>3620.051808</v>
+        <v>3619.91608</v>
       </c>
       <c r="KK9" t="n">
-        <v>3615.15788</v>
+        <v>3615.397075</v>
       </c>
       <c r="KL9" t="n">
-        <v>3614.359149</v>
+        <v>3614.786451</v>
       </c>
       <c r="KM9" t="n">
-        <v>3654.885271</v>
+        <v>3655.837527</v>
       </c>
       <c r="KN9" t="n">
-        <v>3636.723458</v>
+        <v>3637.091478</v>
       </c>
       <c r="KO9" t="n">
-        <v>3675.156162</v>
+        <v>3675.649622</v>
       </c>
       <c r="KP9" t="n">
-        <v>3649.146336</v>
+        <v>3649.923733</v>
       </c>
       <c r="KQ9" t="n">
-        <v>3673.99675</v>
+        <v>3673.623963</v>
       </c>
       <c r="KR9" t="n">
-        <v>3807.761399</v>
+        <v>3808.388276</v>
       </c>
       <c r="KS9" t="n">
-        <v>3732.300751</v>
+        <v>3731.849474</v>
       </c>
       <c r="KT9" t="n">
-        <v>3676.613992</v>
+        <v>3673.9604</v>
       </c>
       <c r="KU9" t="n">
-        <v>3742.922435</v>
+        <v>3742.486532</v>
       </c>
       <c r="KV9" t="n">
-        <v>3734.453331</v>
+        <v>3735.191229</v>
       </c>
       <c r="KW9" t="n">
-        <v>3689.292584</v>
+        <v>3689.816321</v>
       </c>
       <c r="KX9" t="n">
-        <v>3838.229179</v>
+        <v>3838.707654</v>
       </c>
       <c r="KY9" t="n">
-        <v>3701.004186</v>
+        <v>3701.220967</v>
       </c>
       <c r="KZ9" t="n">
-        <v>3772.895214</v>
+        <v>3772.762451</v>
       </c>
       <c r="LA9" t="n">
-        <v>3716.74875</v>
+        <v>3715.858108</v>
       </c>
       <c r="LB9" t="n">
-        <v>3738.59258</v>
+        <v>3739.325619</v>
       </c>
       <c r="LC9" t="n">
-        <v>3733.901096</v>
+        <v>3735.068868</v>
       </c>
       <c r="LD9" t="n">
-        <v>3620.381736</v>
+        <v>3620.581709</v>
       </c>
       <c r="LE9" t="n">
-        <v>3631.113596</v>
+        <v>3630.792555</v>
       </c>
       <c r="LF9" t="n">
-        <v>3529.244023</v>
+        <v>3528.140089</v>
       </c>
       <c r="LG9" t="n">
-        <v>3651.470931</v>
+        <v>3651.293815</v>
       </c>
       <c r="LH9" t="n">
-        <v>3741.574964</v>
+        <v>3741.44317</v>
       </c>
       <c r="LI9" t="n">
-        <v>3753.145342</v>
+        <v>3753.913624</v>
       </c>
       <c r="LJ9" t="n">
-        <v>3814.385699</v>
+        <v>3814.793429</v>
       </c>
       <c r="LK9" t="n">
-        <v>3815.180404</v>
+        <v>3815.479234</v>
       </c>
       <c r="LL9" t="n">
-        <v>3804.195082</v>
+        <v>3804.481235</v>
       </c>
       <c r="LM9" t="n">
-        <v>3865.717007</v>
+        <v>3865.439295</v>
       </c>
       <c r="LN9" t="n">
-        <v>3859.214057</v>
+        <v>3860.459324</v>
       </c>
       <c r="LO9" t="n">
-        <v>3817.97235</v>
+        <v>3816.916987</v>
       </c>
       <c r="LP9" t="n">
-        <v>3894.90093</v>
+        <v>3895.917017</v>
       </c>
       <c r="LQ9" t="n">
-        <v>3959.476185</v>
+        <v>3957.888724</v>
       </c>
       <c r="LR9" t="n">
-        <v>3939.857804</v>
+        <v>3938.685172</v>
       </c>
       <c r="LS9" t="n">
-        <v>4006.055238</v>
+        <v>4005.583475</v>
       </c>
       <c r="LT9" t="n">
-        <v>3966.223204</v>
+        <v>3964.440807</v>
       </c>
       <c r="LU9" t="n">
-        <v>4080.093878</v>
+        <v>4081.397087</v>
       </c>
       <c r="LV9" t="n">
-        <v>4034.863753</v>
+        <v>4036.181001</v>
       </c>
       <c r="LW9" t="n">
-        <v>4015.703916</v>
+        <v>4016.151452</v>
       </c>
       <c r="LX9" t="n">
-        <v>4010.35347</v>
+        <v>4010.944265</v>
       </c>
       <c r="LY9" t="n">
-        <v>4046.93239</v>
+        <v>4046.825855</v>
       </c>
       <c r="LZ9" t="n">
-        <v>3922.04439</v>
+        <v>3923.825702</v>
       </c>
       <c r="MA9" t="n">
-        <v>3961.887608</v>
+        <v>3959.555015</v>
       </c>
       <c r="MB9" t="n">
-        <v>3976.298815</v>
+        <v>3976.166891</v>
       </c>
       <c r="MC9" t="n">
-        <v>3979.438498</v>
+        <v>3977.537056</v>
       </c>
       <c r="MD9" t="n">
-        <v>3978.745713</v>
+        <v>3976.90437</v>
       </c>
       <c r="ME9" t="n">
-        <v>4120.887968</v>
+        <v>4121.305331</v>
       </c>
       <c r="MF9" t="n">
-        <v>3997.421676</v>
+        <v>3995.273574</v>
       </c>
       <c r="MG9" t="n">
-        <v>4023.983485</v>
+        <v>4025.3606</v>
       </c>
       <c r="MH9" t="n">
-        <v>3963.739835</v>
+        <v>3965.616896</v>
       </c>
       <c r="MI9" t="n">
-        <v>3992.113753</v>
+        <v>3994.414803</v>
       </c>
       <c r="MJ9" t="n">
-        <v>3906.765216</v>
+        <v>3909.520528</v>
       </c>
       <c r="MK9" t="n">
-        <v>4010.577467</v>
+        <v>4010.063758</v>
       </c>
       <c r="ML9" t="n">
-        <v>4062.401718</v>
+        <v>4065.15101</v>
       </c>
       <c r="MM9" t="n">
-        <v>4112.553287</v>
+        <v>4106.797567</v>
       </c>
       <c r="MN9" t="n">
-        <v>4077.418205</v>
+        <v>4077.074184</v>
       </c>
       <c r="MO9" t="n">
-        <v>4135.629226</v>
+        <v>4132.565539</v>
       </c>
       <c r="MP9" t="n">
-        <v>4206.700526</v>
+        <v>4203.315359</v>
       </c>
       <c r="MQ9" t="n">
-        <v>4042.323788</v>
+        <v>4042.156311</v>
       </c>
       <c r="MR9" t="n">
-        <v>4068.499353</v>
+        <v>4066.487741</v>
       </c>
       <c r="MS9" t="n">
-        <v>4152.732907</v>
+        <v>4154.605456</v>
       </c>
       <c r="MT9" t="n">
-        <v>4209.499847</v>
+        <v>4213.238349</v>
       </c>
       <c r="MU9" t="n">
-        <v>4039.461641</v>
+        <v>4042.709302</v>
       </c>
       <c r="MV9" t="n">
-        <v>4003.626501</v>
+        <v>4007.323753</v>
       </c>
       <c r="MW9" t="n">
-        <v>4007.919088</v>
+        <v>4005.583768</v>
       </c>
       <c r="MX9" t="n">
-        <v>4027.357918</v>
+        <v>4030.265648</v>
       </c>
       <c r="MY9" t="n">
-        <v>4058.65179</v>
+        <v>4051.000149</v>
       </c>
       <c r="MZ9" t="n">
-        <v>3828.582668</v>
+        <v>3827.501438</v>
       </c>
       <c r="NA9" t="n">
-        <v>3334.106978</v>
+        <v>3331.185991</v>
       </c>
       <c r="NB9" t="n">
-        <v>3490.277263</v>
+        <v>3486.842879</v>
       </c>
       <c r="NC9" t="n">
-        <v>3851.938257</v>
+        <v>3852.494782</v>
       </c>
       <c r="ND9" t="n">
-        <v>4031.020373</v>
+        <v>4029.071004</v>
       </c>
       <c r="NE9" t="n">
-        <v>3942.176958</v>
+        <v>3944.121307</v>
       </c>
       <c r="NF9" t="n">
-        <v>3890.114647</v>
+        <v>3895.175558</v>
       </c>
       <c r="NG9" t="n">
-        <v>4000.285715</v>
+        <v>4005.505832</v>
       </c>
       <c r="NH9" t="n">
-        <v>4087.125094</v>
+        <v>4093.061089</v>
       </c>
       <c r="NI9" t="n">
-        <v>4042.538805</v>
+        <v>4039.584827</v>
       </c>
       <c r="NJ9" t="n">
-        <v>4043.895551</v>
+        <v>4046.876021</v>
       </c>
       <c r="NK9" t="n">
-        <v>4068.439024</v>
+        <v>4055.776783</v>
       </c>
       <c r="NL9" t="n">
-        <v>4287.374219</v>
+        <v>4287.453303</v>
       </c>
       <c r="NM9" t="n">
-        <v>4423.380592</v>
+        <v>4421.577948</v>
       </c>
       <c r="NN9" t="n">
-        <v>4492.201578</v>
+        <v>4491.644634</v>
       </c>
       <c r="NO9" t="n">
-        <v>4581.791365</v>
+        <v>4582.777819</v>
       </c>
       <c r="NP9" t="n">
-        <v>4494.58655</v>
+        <v>4498.057323</v>
       </c>
       <c r="NQ9" t="n">
-        <v>4580.104278</v>
+        <v>4583.059769</v>
       </c>
       <c r="NR9" t="n">
-        <v>4523.787997</v>
+        <v>4530.333353</v>
       </c>
       <c r="NS9" t="n">
-        <v>4550.746615</v>
+        <v>4556.069721</v>
       </c>
       <c r="NT9" t="n">
-        <v>4650.327509</v>
+        <v>4654.818997</v>
       </c>
       <c r="NU9" t="n">
-        <v>4531.226492</v>
+        <v>4522.96421</v>
       </c>
       <c r="NV9" t="n">
-        <v>4768.509987</v>
+        <v>4794.871382</v>
+      </c>
+      <c r="NW9" t="n">
+        <v>4774.841955</v>
       </c>
     </row>
     <row r="10">
@@ -10984,331 +11013,334 @@
         <v>3160.140114</v>
       </c>
       <c r="JR10" t="n">
-        <v>3115.764573</v>
+        <v>3115.796791</v>
       </c>
       <c r="JS10" t="n">
-        <v>3143.017691</v>
+        <v>3142.334181</v>
       </c>
       <c r="JT10" t="n">
-        <v>3032.068215</v>
+        <v>3031.978932</v>
       </c>
       <c r="JU10" t="n">
-        <v>3186.195011</v>
+        <v>3186.189955</v>
       </c>
       <c r="JV10" t="n">
-        <v>3177.857701</v>
+        <v>3177.415681</v>
       </c>
       <c r="JW10" t="n">
-        <v>3065.970657</v>
+        <v>3065.837948</v>
       </c>
       <c r="JX10" t="n">
-        <v>3089.189582</v>
+        <v>3089.466771</v>
       </c>
       <c r="JY10" t="n">
-        <v>3104.084495</v>
+        <v>3104.221453</v>
       </c>
       <c r="JZ10" t="n">
-        <v>3132.581041</v>
+        <v>3132.972386</v>
       </c>
       <c r="KA10" t="n">
-        <v>3144.066011</v>
+        <v>3143.695226</v>
       </c>
       <c r="KB10" t="n">
-        <v>3173.438837</v>
+        <v>3173.126439</v>
       </c>
       <c r="KC10" t="n">
-        <v>3204.153538</v>
+        <v>3203.842423</v>
       </c>
       <c r="KD10" t="n">
-        <v>3105.430194</v>
+        <v>3105.335257</v>
       </c>
       <c r="KE10" t="n">
-        <v>3197.669147</v>
+        <v>3197.036778</v>
       </c>
       <c r="KF10" t="n">
-        <v>3134.198321</v>
+        <v>3134.203547</v>
       </c>
       <c r="KG10" t="n">
-        <v>3102.705791</v>
+        <v>3102.556444</v>
       </c>
       <c r="KH10" t="n">
-        <v>3126.698169</v>
+        <v>3127.072376</v>
       </c>
       <c r="KI10" t="n">
-        <v>3222.271732</v>
+        <v>3222.149135</v>
       </c>
       <c r="KJ10" t="n">
-        <v>3183.138685</v>
+        <v>3182.468466</v>
       </c>
       <c r="KK10" t="n">
-        <v>3109.131707</v>
+        <v>3108.987454</v>
       </c>
       <c r="KL10" t="n">
-        <v>3193.160547</v>
+        <v>3193.441449</v>
       </c>
       <c r="KM10" t="n">
-        <v>3123.592894</v>
+        <v>3123.718265</v>
       </c>
       <c r="KN10" t="n">
-        <v>3140.732474</v>
+        <v>3140.97654</v>
       </c>
       <c r="KO10" t="n">
-        <v>3198.836958</v>
+        <v>3199.370073</v>
       </c>
       <c r="KP10" t="n">
-        <v>3162.68648</v>
+        <v>3162.674889</v>
       </c>
       <c r="KQ10" t="n">
-        <v>3178.83483</v>
+        <v>3177.97244</v>
       </c>
       <c r="KR10" t="n">
-        <v>3247.283411</v>
+        <v>3247.159042</v>
       </c>
       <c r="KS10" t="n">
-        <v>3256.841231</v>
+        <v>3256.69849</v>
       </c>
       <c r="KT10" t="n">
-        <v>3244.664778</v>
+        <v>3243.980915</v>
       </c>
       <c r="KU10" t="n">
-        <v>3244.469779</v>
+        <v>3244.63481</v>
       </c>
       <c r="KV10" t="n">
-        <v>3265.150875</v>
+        <v>3265.313811</v>
       </c>
       <c r="KW10" t="n">
-        <v>3201.909196</v>
+        <v>3202.078641</v>
       </c>
       <c r="KX10" t="n">
-        <v>3196.85322</v>
+        <v>3197.182671</v>
       </c>
       <c r="KY10" t="n">
-        <v>3295.746367</v>
+        <v>3295.578465</v>
       </c>
       <c r="KZ10" t="n">
-        <v>3263.939221</v>
+        <v>3264.336014</v>
       </c>
       <c r="LA10" t="n">
-        <v>3250.141029</v>
+        <v>3249.965525</v>
       </c>
       <c r="LB10" t="n">
-        <v>3346.56381</v>
+        <v>3346.138137</v>
       </c>
       <c r="LC10" t="n">
-        <v>3303.918826</v>
+        <v>3306.037113</v>
       </c>
       <c r="LD10" t="n">
-        <v>3144.106712</v>
+        <v>3143.197123</v>
       </c>
       <c r="LE10" t="n">
-        <v>3268.308148</v>
+        <v>3268.726476</v>
       </c>
       <c r="LF10" t="n">
-        <v>3172.223341</v>
+        <v>3172.575649</v>
       </c>
       <c r="LG10" t="n">
-        <v>3240.224938</v>
+        <v>3240.195213</v>
       </c>
       <c r="LH10" t="n">
-        <v>3215.461701</v>
+        <v>3215.080507</v>
       </c>
       <c r="LI10" t="n">
-        <v>3342.865709</v>
+        <v>3342.736042</v>
       </c>
       <c r="LJ10" t="n">
-        <v>3333.426907</v>
+        <v>3333.859417</v>
       </c>
       <c r="LK10" t="n">
-        <v>3346.613698</v>
+        <v>3346.711459</v>
       </c>
       <c r="LL10" t="n">
-        <v>3388.68856</v>
+        <v>3389.737644</v>
       </c>
       <c r="LM10" t="n">
-        <v>3420.957348</v>
+        <v>3421.748074</v>
       </c>
       <c r="LN10" t="n">
-        <v>3338.754997</v>
+        <v>3339.546167</v>
       </c>
       <c r="LO10" t="n">
-        <v>3390.335969</v>
+        <v>3386.460364</v>
       </c>
       <c r="LP10" t="n">
-        <v>3449.571494</v>
+        <v>3449.027664</v>
       </c>
       <c r="LQ10" t="n">
-        <v>3394.150809</v>
+        <v>3393.847827</v>
       </c>
       <c r="LR10" t="n">
-        <v>3556.264279</v>
+        <v>3557.019965</v>
       </c>
       <c r="LS10" t="n">
-        <v>3542.118996</v>
+        <v>3541.474093</v>
       </c>
       <c r="LT10" t="n">
-        <v>3566.002687</v>
+        <v>3564.957517</v>
       </c>
       <c r="LU10" t="n">
-        <v>3606.483529</v>
+        <v>3606.312929</v>
       </c>
       <c r="LV10" t="n">
-        <v>3565.58333</v>
+        <v>3566.306255</v>
       </c>
       <c r="LW10" t="n">
-        <v>3582.726918</v>
+        <v>3582.913128</v>
       </c>
       <c r="LX10" t="n">
-        <v>3550.322823</v>
+        <v>3553.508589</v>
       </c>
       <c r="LY10" t="n">
-        <v>3555.371625</v>
+        <v>3556.198487</v>
       </c>
       <c r="LZ10" t="n">
-        <v>3596.391798</v>
+        <v>3598.309533</v>
       </c>
       <c r="MA10" t="n">
-        <v>3472.538552</v>
+        <v>3465.32598</v>
       </c>
       <c r="MB10" t="n">
-        <v>3488.92262</v>
+        <v>3487.367112</v>
       </c>
       <c r="MC10" t="n">
-        <v>3563.480135</v>
+        <v>3563.622659</v>
       </c>
       <c r="MD10" t="n">
-        <v>3593.107055</v>
+        <v>3593.955118</v>
       </c>
       <c r="ME10" t="n">
-        <v>3504.861513</v>
+        <v>3504.570139</v>
       </c>
       <c r="MF10" t="n">
-        <v>3523.889343</v>
+        <v>3522.768939</v>
       </c>
       <c r="MG10" t="n">
-        <v>3537.401059</v>
+        <v>3537.417126</v>
       </c>
       <c r="MH10" t="n">
-        <v>3536.022227</v>
+        <v>3536.988952</v>
       </c>
       <c r="MI10" t="n">
-        <v>3515.433582</v>
+        <v>3517.035877</v>
       </c>
       <c r="MJ10" t="n">
-        <v>3573.02335</v>
+        <v>3580.53052</v>
       </c>
       <c r="MK10" t="n">
-        <v>3586.10979</v>
+        <v>3587.84025</v>
       </c>
       <c r="ML10" t="n">
-        <v>3618.796607</v>
+        <v>3623.782522</v>
       </c>
       <c r="MM10" t="n">
-        <v>3634.080812</v>
+        <v>3618.109959</v>
       </c>
       <c r="MN10" t="n">
-        <v>3629.09478</v>
+        <v>3625.957619</v>
       </c>
       <c r="MO10" t="n">
-        <v>3594.332682</v>
+        <v>3593.861298</v>
       </c>
       <c r="MP10" t="n">
-        <v>3616.421439</v>
+        <v>3616.440787</v>
       </c>
       <c r="MQ10" t="n">
-        <v>3529.238785</v>
+        <v>3527.628752</v>
       </c>
       <c r="MR10" t="n">
-        <v>3565.497694</v>
+        <v>3564.39861</v>
       </c>
       <c r="MS10" t="n">
-        <v>3580.952416</v>
+        <v>3581.090394</v>
       </c>
       <c r="MT10" t="n">
-        <v>3572.274871</v>
+        <v>3574.634228</v>
       </c>
       <c r="MU10" t="n">
-        <v>3633.572943</v>
+        <v>3635.58347</v>
       </c>
       <c r="MV10" t="n">
-        <v>3584.626128</v>
+        <v>3594.171277</v>
       </c>
       <c r="MW10" t="n">
-        <v>3550.367107</v>
+        <v>3551.177833</v>
       </c>
       <c r="MX10" t="n">
-        <v>3531.353058</v>
+        <v>3537.876042</v>
       </c>
       <c r="MY10" t="n">
-        <v>3712.289826</v>
+        <v>3692.882923</v>
       </c>
       <c r="MZ10" t="n">
-        <v>3446.923911</v>
+        <v>3442.577129</v>
       </c>
       <c r="NA10" t="n">
-        <v>3203.716626</v>
+        <v>3202.997881</v>
       </c>
       <c r="NB10" t="n">
-        <v>3253.924102</v>
+        <v>3252.580254</v>
       </c>
       <c r="NC10" t="n">
-        <v>3563.284772</v>
+        <v>3561.497027</v>
       </c>
       <c r="ND10" t="n">
-        <v>3602.369801</v>
+        <v>3600.907798</v>
       </c>
       <c r="NE10" t="n">
-        <v>3586.408618</v>
+        <v>3586.642017</v>
       </c>
       <c r="NF10" t="n">
-        <v>3601.99668</v>
+        <v>3604.770799</v>
       </c>
       <c r="NG10" t="n">
-        <v>3541.967658</v>
+        <v>3544.742769</v>
       </c>
       <c r="NH10" t="n">
-        <v>3414.969452</v>
+        <v>3426.401748</v>
       </c>
       <c r="NI10" t="n">
-        <v>3433.011482</v>
+        <v>3433.393768</v>
       </c>
       <c r="NJ10" t="n">
-        <v>3460.835049</v>
+        <v>3470.134769</v>
       </c>
       <c r="NK10" t="n">
-        <v>3576.616877</v>
+        <v>3546.883336</v>
       </c>
       <c r="NL10" t="n">
-        <v>3730.521292</v>
+        <v>3724.705837</v>
       </c>
       <c r="NM10" t="n">
-        <v>3708.009923</v>
+        <v>3705.789522</v>
       </c>
       <c r="NN10" t="n">
-        <v>3723.457758</v>
+        <v>3723.37673</v>
       </c>
       <c r="NO10" t="n">
-        <v>3878.361144</v>
+        <v>3876.587354</v>
       </c>
       <c r="NP10" t="n">
-        <v>3830.632281</v>
+        <v>3828.062758</v>
       </c>
       <c r="NQ10" t="n">
-        <v>3884.589569</v>
+        <v>3884.595988</v>
       </c>
       <c r="NR10" t="n">
-        <v>3890.239384</v>
+        <v>3894.375826</v>
       </c>
       <c r="NS10" t="n">
-        <v>4011.558785</v>
+        <v>4014.201612</v>
       </c>
       <c r="NT10" t="n">
-        <v>4114.988595</v>
+        <v>4126.277465</v>
       </c>
       <c r="NU10" t="n">
-        <v>4186.356821</v>
+        <v>4174.446598</v>
       </c>
       <c r="NV10" t="n">
-        <v>4163.936844</v>
+        <v>4158.730616</v>
+      </c>
+      <c r="NW10" t="n">
+        <v>4306.750602</v>
       </c>
     </row>
     <row r="11">
@@ -12128,7 +12160,7 @@
         <v>819.099631</v>
       </c>
       <c r="MN11" t="n">
-        <v>788.061068</v>
+        <v>788.061282</v>
       </c>
       <c r="MO11" t="n">
         <v>781.800053</v>
@@ -12137,7 +12169,7 @@
         <v>691.9390529999999</v>
       </c>
       <c r="MQ11" t="n">
-        <v>597.055516</v>
+        <v>597.055641</v>
       </c>
       <c r="MR11" t="n">
         <v>719.110783</v>
@@ -12170,7 +12202,7 @@
         <v>276.545823</v>
       </c>
       <c r="NB11" t="n">
-        <v>219.789362</v>
+        <v>219.789487</v>
       </c>
       <c r="NC11" t="n">
         <v>299.732567</v>
@@ -12188,7 +12220,7 @@
         <v>367.345636</v>
       </c>
       <c r="NH11" t="n">
-        <v>468.436027</v>
+        <v>468.436124</v>
       </c>
       <c r="NI11" t="n">
         <v>422.943099</v>
@@ -12197,40 +12229,43 @@
         <v>350.008939</v>
       </c>
       <c r="NK11" t="n">
-        <v>435.019501</v>
+        <v>435.371159</v>
       </c>
       <c r="NL11" t="n">
-        <v>560.760002</v>
+        <v>560.7601529999999</v>
       </c>
       <c r="NM11" t="n">
-        <v>555.339757</v>
+        <v>555.339822</v>
       </c>
       <c r="NN11" t="n">
-        <v>446.668484</v>
+        <v>446.668921</v>
       </c>
       <c r="NO11" t="n">
-        <v>482.182648</v>
+        <v>482.175807</v>
       </c>
       <c r="NP11" t="n">
-        <v>589.054018</v>
+        <v>589.0519430000001</v>
       </c>
       <c r="NQ11" t="n">
-        <v>717.204842</v>
+        <v>717.205139</v>
       </c>
       <c r="NR11" t="n">
-        <v>502.557197</v>
+        <v>502.547983</v>
       </c>
       <c r="NS11" t="n">
-        <v>705.350426</v>
+        <v>704.406834</v>
       </c>
       <c r="NT11" t="n">
-        <v>722.687441</v>
+        <v>719.413788</v>
       </c>
       <c r="NU11" t="n">
-        <v>802.492371</v>
+        <v>802.628481</v>
       </c>
       <c r="NV11" t="n">
-        <v>637.700115</v>
+        <v>641.537365</v>
+      </c>
+      <c r="NW11" t="n">
+        <v>605.713225</v>
       </c>
     </row>
     <row r="12">
@@ -12828,331 +12863,334 @@
         <v>2738.330601</v>
       </c>
       <c r="JR12" t="n">
-        <v>2812.405783</v>
+        <v>2812.824691</v>
       </c>
       <c r="JS12" t="n">
-        <v>2585.227711</v>
+        <v>2586.406896</v>
       </c>
       <c r="JT12" t="n">
-        <v>2398.398233</v>
+        <v>2397.558481</v>
       </c>
       <c r="JU12" t="n">
-        <v>2377.535026</v>
+        <v>2377.615577</v>
       </c>
       <c r="JV12" t="n">
-        <v>2302.192644</v>
+        <v>2302.235416</v>
       </c>
       <c r="JW12" t="n">
-        <v>2153.679267</v>
+        <v>2153.915578</v>
       </c>
       <c r="JX12" t="n">
-        <v>2389.104294</v>
+        <v>2389.248297</v>
       </c>
       <c r="JY12" t="n">
-        <v>2199.395319</v>
+        <v>2199.586674</v>
       </c>
       <c r="JZ12" t="n">
-        <v>2454.875526</v>
+        <v>2454.762133</v>
       </c>
       <c r="KA12" t="n">
-        <v>2668.953187</v>
+        <v>2668.750669</v>
       </c>
       <c r="KB12" t="n">
-        <v>2595.204827</v>
+        <v>2595.059913</v>
       </c>
       <c r="KC12" t="n">
-        <v>2469.444794</v>
+        <v>2469.319212</v>
       </c>
       <c r="KD12" t="n">
-        <v>3081.725229</v>
+        <v>3081.869162</v>
       </c>
       <c r="KE12" t="n">
-        <v>2251.748865</v>
+        <v>2253.80982</v>
       </c>
       <c r="KF12" t="n">
-        <v>2043.530542</v>
+        <v>2042.709156</v>
       </c>
       <c r="KG12" t="n">
-        <v>2423.829825</v>
+        <v>2423.798009</v>
       </c>
       <c r="KH12" t="n">
-        <v>2366.83293</v>
+        <v>2366.750658</v>
       </c>
       <c r="KI12" t="n">
-        <v>2290.311767</v>
+        <v>2290.70056</v>
       </c>
       <c r="KJ12" t="n">
-        <v>2388.011037</v>
+        <v>2388.34839</v>
       </c>
       <c r="KK12" t="n">
-        <v>2446.879596</v>
+        <v>2446.836658</v>
       </c>
       <c r="KL12" t="n">
-        <v>2245.624719</v>
+        <v>2245.453754</v>
       </c>
       <c r="KM12" t="n">
-        <v>1919.339045</v>
+        <v>1918.989656</v>
       </c>
       <c r="KN12" t="n">
-        <v>2034.292573</v>
+        <v>2034.006515</v>
       </c>
       <c r="KO12" t="n">
-        <v>1746.823195</v>
+        <v>1746.630344</v>
       </c>
       <c r="KP12" t="n">
-        <v>1721.043475</v>
+        <v>1720.805464</v>
       </c>
       <c r="KQ12" t="n">
-        <v>1272.078963</v>
+        <v>1274.032907</v>
       </c>
       <c r="KR12" t="n">
-        <v>1952.770137</v>
+        <v>1952.062136</v>
       </c>
       <c r="KS12" t="n">
-        <v>1831.669792</v>
+        <v>1831.502955</v>
       </c>
       <c r="KT12" t="n">
-        <v>1653.273881</v>
+        <v>1653.021676</v>
       </c>
       <c r="KU12" t="n">
-        <v>1858.180394</v>
+        <v>1858.685825</v>
       </c>
       <c r="KV12" t="n">
-        <v>1773.868191</v>
+        <v>1774.301648</v>
       </c>
       <c r="KW12" t="n">
-        <v>1647.157949</v>
+        <v>1647.006397</v>
       </c>
       <c r="KX12" t="n">
-        <v>1638.538644</v>
+        <v>1638.283155</v>
       </c>
       <c r="KY12" t="n">
-        <v>1562.630086</v>
+        <v>1562.077397</v>
       </c>
       <c r="KZ12" t="n">
-        <v>1430.837171</v>
+        <v>1430.520386</v>
       </c>
       <c r="LA12" t="n">
-        <v>1418.551659</v>
+        <v>1418.261807</v>
       </c>
       <c r="LB12" t="n">
-        <v>1191.963455</v>
+        <v>1191.670506</v>
       </c>
       <c r="LC12" t="n">
-        <v>1261.478924</v>
+        <v>1261.45333</v>
       </c>
       <c r="LD12" t="n">
-        <v>1074.692363</v>
+        <v>1074.485866</v>
       </c>
       <c r="LE12" t="n">
-        <v>1148.267366</v>
+        <v>1148.127966</v>
       </c>
       <c r="LF12" t="n">
-        <v>1381.688795</v>
+        <v>1381.537084</v>
       </c>
       <c r="LG12" t="n">
-        <v>1496.846635</v>
+        <v>1497.223547</v>
       </c>
       <c r="LH12" t="n">
-        <v>1328.504869</v>
+        <v>1328.92436</v>
       </c>
       <c r="LI12" t="n">
-        <v>1356.390595</v>
+        <v>1356.132227</v>
       </c>
       <c r="LJ12" t="n">
-        <v>1307.991626</v>
+        <v>1307.608056</v>
       </c>
       <c r="LK12" t="n">
-        <v>1125.553408</v>
+        <v>1124.933476</v>
       </c>
       <c r="LL12" t="n">
-        <v>1365.715034</v>
+        <v>1365.200591</v>
       </c>
       <c r="LM12" t="n">
-        <v>1582.418861</v>
+        <v>1581.67033</v>
       </c>
       <c r="LN12" t="n">
-        <v>1570.344438</v>
+        <v>1570.073744</v>
       </c>
       <c r="LO12" t="n">
-        <v>2034.522346</v>
+        <v>2039.613484</v>
       </c>
       <c r="LP12" t="n">
-        <v>1652.955264</v>
+        <v>1653.200532</v>
       </c>
       <c r="LQ12" t="n">
-        <v>1382.068554</v>
+        <v>1382.041946</v>
       </c>
       <c r="LR12" t="n">
-        <v>1412.927056</v>
+        <v>1412.925972</v>
       </c>
       <c r="LS12" t="n">
-        <v>1143.089801</v>
+        <v>1143.403566</v>
       </c>
       <c r="LT12" t="n">
-        <v>1564.954065</v>
+        <v>1565.507184</v>
       </c>
       <c r="LU12" t="n">
-        <v>1298.15596</v>
+        <v>1297.742206</v>
       </c>
       <c r="LV12" t="n">
-        <v>1543.442936</v>
+        <v>1542.898878</v>
       </c>
       <c r="LW12" t="n">
-        <v>1594.072723</v>
+        <v>1592.513523</v>
       </c>
       <c r="LX12" t="n">
-        <v>1672.930228</v>
+        <v>1671.423949</v>
       </c>
       <c r="LY12" t="n">
-        <v>1695.349826</v>
+        <v>1693.143569</v>
       </c>
       <c r="LZ12" t="n">
-        <v>1757.280527</v>
+        <v>1755.628439</v>
       </c>
       <c r="MA12" t="n">
-        <v>1601.923249</v>
+        <v>1610.926347</v>
       </c>
       <c r="MB12" t="n">
-        <v>1576.295164</v>
+        <v>1576.281314</v>
       </c>
       <c r="MC12" t="n">
-        <v>2046.180683</v>
+        <v>2046.216134</v>
       </c>
       <c r="MD12" t="n">
-        <v>2066.631923</v>
+        <v>2066.796366</v>
       </c>
       <c r="ME12" t="n">
-        <v>2085.045403</v>
+        <v>2085.654798</v>
       </c>
       <c r="MF12" t="n">
-        <v>1922.758639</v>
+        <v>1923.480263</v>
       </c>
       <c r="MG12" t="n">
-        <v>2147.772251</v>
+        <v>2147.119981</v>
       </c>
       <c r="MH12" t="n">
-        <v>1925.773736</v>
+        <v>1925.126614</v>
       </c>
       <c r="MI12" t="n">
-        <v>1974.834908</v>
+        <v>1972.063341</v>
       </c>
       <c r="MJ12" t="n">
-        <v>1796.598434</v>
+        <v>1793.635618</v>
       </c>
       <c r="MK12" t="n">
-        <v>1869.91394</v>
+        <v>1864.505547</v>
       </c>
       <c r="ML12" t="n">
-        <v>1817.608609</v>
+        <v>1812.000662</v>
       </c>
       <c r="MM12" t="n">
-        <v>1818.593793</v>
+        <v>1837.86417</v>
       </c>
       <c r="MN12" t="n">
-        <v>1978.294194</v>
+        <v>1979.012685</v>
       </c>
       <c r="MO12" t="n">
-        <v>2000.197487</v>
+        <v>2000.94267</v>
       </c>
       <c r="MP12" t="n">
-        <v>1977.377487</v>
+        <v>1978.084968</v>
       </c>
       <c r="MQ12" t="n">
-        <v>1958.105461</v>
+        <v>1958.579834</v>
       </c>
       <c r="MR12" t="n">
-        <v>1945.604468</v>
+        <v>1945.714327</v>
       </c>
       <c r="MS12" t="n">
-        <v>1912.242459</v>
+        <v>1911.537519</v>
       </c>
       <c r="MT12" t="n">
-        <v>2075.866935</v>
+        <v>2075.287923</v>
       </c>
       <c r="MU12" t="n">
-        <v>1992.238827</v>
+        <v>1988.432068</v>
       </c>
       <c r="MV12" t="n">
-        <v>2194.463434</v>
+        <v>2188.804441</v>
       </c>
       <c r="MW12" t="n">
-        <v>1953.439025</v>
+        <v>1944.354902</v>
       </c>
       <c r="MX12" t="n">
-        <v>2288.796436</v>
+        <v>2276.013748</v>
       </c>
       <c r="MY12" t="n">
-        <v>2251.889212</v>
+        <v>2281.771729</v>
       </c>
       <c r="MZ12" t="n">
-        <v>1663.628924</v>
+        <v>1665.009353</v>
       </c>
       <c r="NA12" t="n">
-        <v>623.382851</v>
+        <v>623.894682</v>
       </c>
       <c r="NB12" t="n">
-        <v>873.193474</v>
+        <v>873.769894</v>
       </c>
       <c r="NC12" t="n">
-        <v>1248.657673</v>
+        <v>1249.117427</v>
       </c>
       <c r="ND12" t="n">
-        <v>1231.682877</v>
+        <v>1231.287041</v>
       </c>
       <c r="NE12" t="n">
-        <v>1286.995988</v>
+        <v>1286.65646</v>
       </c>
       <c r="NF12" t="n">
-        <v>1128.106348</v>
+        <v>1127.86734</v>
       </c>
       <c r="NG12" t="n">
-        <v>1247.008589</v>
+        <v>1244.312093</v>
       </c>
       <c r="NH12" t="n">
-        <v>900.018875</v>
+        <v>897.2301179999999</v>
       </c>
       <c r="NI12" t="n">
-        <v>1385.337233</v>
+        <v>1376.685883</v>
       </c>
       <c r="NJ12" t="n">
-        <v>1789.593442</v>
+        <v>1775.51713</v>
       </c>
       <c r="NK12" t="n">
-        <v>1739.998045</v>
+        <v>1770.50397</v>
       </c>
       <c r="NL12" t="n">
-        <v>1548.897174</v>
+        <v>1553.821644</v>
       </c>
       <c r="NM12" t="n">
-        <v>1692.996352</v>
+        <v>1695.718082</v>
       </c>
       <c r="NN12" t="n">
-        <v>1739.361642</v>
+        <v>1741.475195</v>
       </c>
       <c r="NO12" t="n">
-        <v>1752.721347</v>
+        <v>1753.875443</v>
       </c>
       <c r="NP12" t="n">
-        <v>1856.705551</v>
+        <v>1859.838393</v>
       </c>
       <c r="NQ12" t="n">
-        <v>2090.105191</v>
+        <v>2088.518482</v>
       </c>
       <c r="NR12" t="n">
-        <v>2135.446546</v>
+        <v>2135.873086</v>
       </c>
       <c r="NS12" t="n">
-        <v>2501.906582</v>
+        <v>2507.794677</v>
       </c>
       <c r="NT12" t="n">
-        <v>2691.47739</v>
+        <v>2688.412529</v>
       </c>
       <c r="NU12" t="n">
-        <v>2345.273621</v>
+        <v>2351.491238</v>
       </c>
       <c r="NV12" t="n">
-        <v>2151.300074</v>
+        <v>2166.602207</v>
+      </c>
+      <c r="NW12" t="n">
+        <v>2151.030641</v>
       </c>
     </row>
     <row r="13">
@@ -13750,331 +13788,334 @@
         <v>6764.353569</v>
       </c>
       <c r="JR13" t="n">
-        <v>6759.222003</v>
+        <v>6759.188236</v>
       </c>
       <c r="JS13" t="n">
-        <v>6642.104387</v>
+        <v>6640.844976</v>
       </c>
       <c r="JT13" t="n">
-        <v>6672.501795</v>
+        <v>6672.574008</v>
       </c>
       <c r="JU13" t="n">
-        <v>7036.472295</v>
+        <v>7035.976372</v>
       </c>
       <c r="JV13" t="n">
-        <v>6747.673758</v>
+        <v>6747.342208</v>
       </c>
       <c r="JW13" t="n">
-        <v>6774.870336</v>
+        <v>6774.678505</v>
       </c>
       <c r="JX13" t="n">
-        <v>6759.218355</v>
+        <v>6759.370247</v>
       </c>
       <c r="JY13" t="n">
-        <v>6726.909706</v>
+        <v>6726.690308</v>
       </c>
       <c r="JZ13" t="n">
-        <v>6735.126694</v>
+        <v>6735.673809</v>
       </c>
       <c r="KA13" t="n">
-        <v>6863.596252</v>
+        <v>6863.96322</v>
       </c>
       <c r="KB13" t="n">
-        <v>6707.654926</v>
+        <v>6706.623507</v>
       </c>
       <c r="KC13" t="n">
-        <v>6731.812816</v>
+        <v>6732.846415</v>
       </c>
       <c r="KD13" t="n">
-        <v>6714.946551</v>
+        <v>6715.424386</v>
       </c>
       <c r="KE13" t="n">
-        <v>6749.844704</v>
+        <v>6748.206602</v>
       </c>
       <c r="KF13" t="n">
-        <v>6803.198512</v>
+        <v>6803.630887</v>
       </c>
       <c r="KG13" t="n">
-        <v>6842.828646</v>
+        <v>6842.007646</v>
       </c>
       <c r="KH13" t="n">
-        <v>6784.830714</v>
+        <v>6784.720473</v>
       </c>
       <c r="KI13" t="n">
-        <v>6790.436813</v>
+        <v>6790.127944</v>
       </c>
       <c r="KJ13" t="n">
-        <v>6807.149959</v>
+        <v>6807.329114</v>
       </c>
       <c r="KK13" t="n">
-        <v>6777.186369</v>
+        <v>6776.524426</v>
       </c>
       <c r="KL13" t="n">
-        <v>6947.459096</v>
+        <v>6947.70916</v>
       </c>
       <c r="KM13" t="n">
-        <v>6900.238558</v>
+        <v>6900.820285</v>
       </c>
       <c r="KN13" t="n">
-        <v>6832.542914</v>
+        <v>6833.139973</v>
       </c>
       <c r="KO13" t="n">
-        <v>7002.219415</v>
+        <v>7002.212052</v>
       </c>
       <c r="KP13" t="n">
-        <v>7006.34675</v>
+        <v>7006.171431</v>
       </c>
       <c r="KQ13" t="n">
-        <v>6997.051267</v>
+        <v>6994.97099</v>
       </c>
       <c r="KR13" t="n">
-        <v>7148.142045</v>
+        <v>7149.057516</v>
       </c>
       <c r="KS13" t="n">
-        <v>7183.479345</v>
+        <v>7183.045369</v>
       </c>
       <c r="KT13" t="n">
-        <v>7248.622809</v>
+        <v>7246.696437</v>
       </c>
       <c r="KU13" t="n">
-        <v>7253.270634</v>
+        <v>7253.868441</v>
       </c>
       <c r="KV13" t="n">
-        <v>7252.99158</v>
+        <v>7255.504945</v>
       </c>
       <c r="KW13" t="n">
-        <v>7111.302609</v>
+        <v>7111.718785</v>
       </c>
       <c r="KX13" t="n">
-        <v>7122.506471</v>
+        <v>7122.20153</v>
       </c>
       <c r="KY13" t="n">
-        <v>7079.747376</v>
+        <v>7079.992932</v>
       </c>
       <c r="KZ13" t="n">
-        <v>7130.595909</v>
+        <v>7131.409098</v>
       </c>
       <c r="LA13" t="n">
-        <v>7213.327827</v>
+        <v>7210.665918</v>
       </c>
       <c r="LB13" t="n">
-        <v>7203.250753</v>
+        <v>7202.851047</v>
       </c>
       <c r="LC13" t="n">
-        <v>7271.702994</v>
+        <v>7269.724029</v>
       </c>
       <c r="LD13" t="n">
-        <v>6941.735698</v>
+        <v>6941.602715</v>
       </c>
       <c r="LE13" t="n">
-        <v>6994.439943</v>
+        <v>6995.490467</v>
       </c>
       <c r="LF13" t="n">
-        <v>6932.3425</v>
+        <v>6932.209763</v>
       </c>
       <c r="LG13" t="n">
-        <v>6948.569709</v>
+        <v>6948.308372</v>
       </c>
       <c r="LH13" t="n">
-        <v>7041.633188</v>
+        <v>7044.741765</v>
       </c>
       <c r="LI13" t="n">
-        <v>7125.915661</v>
+        <v>7125.560154</v>
       </c>
       <c r="LJ13" t="n">
-        <v>7159.113111</v>
+        <v>7158.837621</v>
       </c>
       <c r="LK13" t="n">
-        <v>7021.555698</v>
+        <v>7021.355739</v>
       </c>
       <c r="LL13" t="n">
-        <v>7158.833588</v>
+        <v>7157.687655</v>
       </c>
       <c r="LM13" t="n">
-        <v>7265.248319</v>
+        <v>7263.960509</v>
       </c>
       <c r="LN13" t="n">
-        <v>7040.642447</v>
+        <v>7041.338115</v>
       </c>
       <c r="LO13" t="n">
-        <v>7277.655539</v>
+        <v>7274.611218</v>
       </c>
       <c r="LP13" t="n">
-        <v>7500.933663</v>
+        <v>7503.032487</v>
       </c>
       <c r="LQ13" t="n">
-        <v>7117.477987</v>
+        <v>7117.056466</v>
       </c>
       <c r="LR13" t="n">
-        <v>7207.67618</v>
+        <v>7207.22963</v>
       </c>
       <c r="LS13" t="n">
-        <v>7310.053058</v>
+        <v>7309.107758</v>
       </c>
       <c r="LT13" t="n">
-        <v>7431.808285</v>
+        <v>7435.985108</v>
       </c>
       <c r="LU13" t="n">
-        <v>7512.573924</v>
+        <v>7513.184756</v>
       </c>
       <c r="LV13" t="n">
-        <v>7466.565307</v>
+        <v>7464.643611</v>
       </c>
       <c r="LW13" t="n">
-        <v>7482.144849</v>
+        <v>7481.822114</v>
       </c>
       <c r="LX13" t="n">
-        <v>7632.711686</v>
+        <v>7631.883476</v>
       </c>
       <c r="LY13" t="n">
-        <v>7567.610941</v>
+        <v>7566.717106</v>
       </c>
       <c r="LZ13" t="n">
-        <v>7522.801952</v>
+        <v>7522.313092</v>
       </c>
       <c r="MA13" t="n">
-        <v>7308.432767</v>
+        <v>7302.629711</v>
       </c>
       <c r="MB13" t="n">
-        <v>7406.032356</v>
+        <v>7409.62164</v>
       </c>
       <c r="MC13" t="n">
-        <v>7596.176139</v>
+        <v>7595.89234</v>
       </c>
       <c r="MD13" t="n">
-        <v>7497.016356</v>
+        <v>7496.685213</v>
       </c>
       <c r="ME13" t="n">
-        <v>7608.574758</v>
+        <v>7607.740498</v>
       </c>
       <c r="MF13" t="n">
-        <v>7551.703434</v>
+        <v>7556.724732</v>
       </c>
       <c r="MG13" t="n">
-        <v>7664.399277</v>
+        <v>7666.270421</v>
       </c>
       <c r="MH13" t="n">
-        <v>7443.532773</v>
+        <v>7439.675606</v>
       </c>
       <c r="MI13" t="n">
-        <v>7653.42672</v>
+        <v>7653.217351</v>
       </c>
       <c r="MJ13" t="n">
-        <v>7485.612569</v>
+        <v>7485.965883</v>
       </c>
       <c r="MK13" t="n">
-        <v>7675.430664</v>
+        <v>7681.685987</v>
       </c>
       <c r="ML13" t="n">
-        <v>7705.190281</v>
+        <v>7703.74535</v>
       </c>
       <c r="MM13" t="n">
-        <v>7753.143739</v>
+        <v>7738.366136</v>
       </c>
       <c r="MN13" t="n">
-        <v>7579.663594</v>
+        <v>7586.152426</v>
       </c>
       <c r="MO13" t="n">
-        <v>7834.570478</v>
+        <v>7832.104885</v>
       </c>
       <c r="MP13" t="n">
-        <v>7938.501516</v>
+        <v>7939.21007</v>
       </c>
       <c r="MQ13" t="n">
-        <v>7661.323182</v>
+        <v>7670.805005</v>
       </c>
       <c r="MR13" t="n">
-        <v>7450.21196</v>
+        <v>7468.518865</v>
       </c>
       <c r="MS13" t="n">
-        <v>7871.472108</v>
+        <v>7890.375848</v>
       </c>
       <c r="MT13" t="n">
-        <v>7779.998041</v>
+        <v>7807.498973</v>
       </c>
       <c r="MU13" t="n">
-        <v>7684.98568</v>
+        <v>7708.80833</v>
       </c>
       <c r="MV13" t="n">
-        <v>7729.772346</v>
+        <v>7755.067205</v>
       </c>
       <c r="MW13" t="n">
-        <v>7635.408524</v>
+        <v>7663.332622</v>
       </c>
       <c r="MX13" t="n">
-        <v>7255.757639</v>
+        <v>7275.079447</v>
       </c>
       <c r="MY13" t="n">
-        <v>7689.38641</v>
+        <v>7678.378383</v>
       </c>
       <c r="MZ13" t="n">
-        <v>6236.042712</v>
+        <v>6253.209451</v>
       </c>
       <c r="NA13" t="n">
-        <v>4346.711682</v>
+        <v>4352.713164</v>
       </c>
       <c r="NB13" t="n">
-        <v>5682.048749</v>
+        <v>5695.800539</v>
       </c>
       <c r="NC13" t="n">
-        <v>6594.38898</v>
+        <v>6608.087734</v>
       </c>
       <c r="ND13" t="n">
-        <v>7001.786567</v>
+        <v>7021.032058</v>
       </c>
       <c r="NE13" t="n">
-        <v>6956.244484</v>
+        <v>6972.397362</v>
       </c>
       <c r="NF13" t="n">
-        <v>7079.846604</v>
+        <v>7094.656323</v>
       </c>
       <c r="NG13" t="n">
-        <v>7343.462234</v>
+        <v>7361.187499</v>
       </c>
       <c r="NH13" t="n">
-        <v>7284.711978</v>
+        <v>7308.938408</v>
       </c>
       <c r="NI13" t="n">
-        <v>7183.925383</v>
+        <v>7215.779802</v>
       </c>
       <c r="NJ13" t="n">
-        <v>7453.348145</v>
+        <v>7471.921465</v>
       </c>
       <c r="NK13" t="n">
-        <v>7304.265509</v>
+        <v>7298.518639</v>
       </c>
       <c r="NL13" t="n">
-        <v>7506.256355</v>
+        <v>7543.054794</v>
       </c>
       <c r="NM13" t="n">
-        <v>7423.701701</v>
+        <v>7447.752822</v>
       </c>
       <c r="NN13" t="n">
-        <v>7541.301366</v>
+        <v>7568.024863</v>
       </c>
       <c r="NO13" t="n">
-        <v>7591.039733</v>
+        <v>7610.556616</v>
       </c>
       <c r="NP13" t="n">
-        <v>7657.675347</v>
+        <v>7676.763316</v>
       </c>
       <c r="NQ13" t="n">
-        <v>7853.554961</v>
+        <v>7870.29889</v>
       </c>
       <c r="NR13" t="n">
-        <v>7782.219193</v>
+        <v>7794.373949</v>
       </c>
       <c r="NS13" t="n">
-        <v>7773.337094</v>
+        <v>7792.645837</v>
       </c>
       <c r="NT13" t="n">
-        <v>8041.721511</v>
+        <v>8063.195034</v>
       </c>
       <c r="NU13" t="n">
-        <v>7933.841661</v>
+        <v>7964.356545</v>
       </c>
       <c r="NV13" t="n">
-        <v>8379.963100999999</v>
+        <v>8428.366135</v>
+      </c>
+      <c r="NW13" t="n">
+        <v>8335.011194999999</v>
       </c>
     </row>
     <row r="14">
@@ -14672,331 +14713,334 @@
         <v>8466.972970000001</v>
       </c>
       <c r="JR14" t="n">
-        <v>8514.290747999999</v>
+        <v>8514.305281000001</v>
       </c>
       <c r="JS14" t="n">
-        <v>8264.458408</v>
+        <v>8265.216447999999</v>
       </c>
       <c r="JT14" t="n">
-        <v>8260.802841000001</v>
+        <v>8260.598053</v>
       </c>
       <c r="JU14" t="n">
-        <v>8649.719116</v>
+        <v>8649.778678000001</v>
       </c>
       <c r="JV14" t="n">
-        <v>8476.528270000001</v>
+        <v>8476.447482</v>
       </c>
       <c r="JW14" t="n">
-        <v>8404.946045000001</v>
+        <v>8404.989750000001</v>
       </c>
       <c r="JX14" t="n">
-        <v>8272.103563000001</v>
+        <v>8272.443150999999</v>
       </c>
       <c r="JY14" t="n">
-        <v>8446.134195000001</v>
+        <v>8446.018278</v>
       </c>
       <c r="JZ14" t="n">
-        <v>8563.865986000001</v>
+        <v>8563.040668</v>
       </c>
       <c r="KA14" t="n">
-        <v>8459.447453999999</v>
+        <v>8459.697829999999</v>
       </c>
       <c r="KB14" t="n">
-        <v>8587.800722</v>
+        <v>8587.923735</v>
       </c>
       <c r="KC14" t="n">
-        <v>8414.631081</v>
+        <v>8414.498432</v>
       </c>
       <c r="KD14" t="n">
-        <v>8334.458588</v>
+        <v>8334.651673</v>
       </c>
       <c r="KE14" t="n">
-        <v>8428.167576</v>
+        <v>8428.701281</v>
       </c>
       <c r="KF14" t="n">
-        <v>8476.346922000001</v>
+        <v>8475.610793</v>
       </c>
       <c r="KG14" t="n">
-        <v>8393.306006999999</v>
+        <v>8393.710385</v>
       </c>
       <c r="KH14" t="n">
-        <v>8253.866485</v>
+        <v>8254.619189999999</v>
       </c>
       <c r="KI14" t="n">
-        <v>8565.950085</v>
+        <v>8566.277899999999</v>
       </c>
       <c r="KJ14" t="n">
-        <v>8440.721708999999</v>
+        <v>8440.665039</v>
       </c>
       <c r="KK14" t="n">
-        <v>8516.373479</v>
+        <v>8515.593245</v>
       </c>
       <c r="KL14" t="n">
-        <v>8666.513466</v>
+        <v>8666.011017000001</v>
       </c>
       <c r="KM14" t="n">
-        <v>8543.291155999999</v>
+        <v>8543.704137000001</v>
       </c>
       <c r="KN14" t="n">
-        <v>8555.770745</v>
+        <v>8555.457356999999</v>
       </c>
       <c r="KO14" t="n">
-        <v>8651.905226999999</v>
+        <v>8653.362856</v>
       </c>
       <c r="KP14" t="n">
-        <v>8582.136138</v>
+        <v>8582.547908</v>
       </c>
       <c r="KQ14" t="n">
-        <v>8787.226693000001</v>
+        <v>8787.851753999999</v>
       </c>
       <c r="KR14" t="n">
-        <v>9115.445103</v>
+        <v>9114.990191000001</v>
       </c>
       <c r="KS14" t="n">
-        <v>8968.499507</v>
+        <v>8968.040061</v>
       </c>
       <c r="KT14" t="n">
-        <v>9010.562528</v>
+        <v>9009.610651999999</v>
       </c>
       <c r="KU14" t="n">
-        <v>8998.464120000001</v>
+        <v>8999.404745</v>
       </c>
       <c r="KV14" t="n">
-        <v>8977.572737</v>
+        <v>8976.985806999999</v>
       </c>
       <c r="KW14" t="n">
-        <v>8932.892022</v>
+        <v>8931.776893</v>
       </c>
       <c r="KX14" t="n">
-        <v>9095.128565999999</v>
+        <v>9095.271733</v>
       </c>
       <c r="KY14" t="n">
-        <v>9448.404060999999</v>
+        <v>9448.216861000001</v>
       </c>
       <c r="KZ14" t="n">
-        <v>9139.640380999999</v>
+        <v>9139.494638</v>
       </c>
       <c r="LA14" t="n">
-        <v>9274.030473000001</v>
+        <v>9275.366986000001</v>
       </c>
       <c r="LB14" t="n">
-        <v>9172.377911</v>
+        <v>9172.846844</v>
       </c>
       <c r="LC14" t="n">
-        <v>9319.710863</v>
+        <v>9318.339813000001</v>
       </c>
       <c r="LD14" t="n">
-        <v>9117.336425</v>
+        <v>9116.586729000001</v>
       </c>
       <c r="LE14" t="n">
-        <v>9155.549809</v>
+        <v>9155.368006000001</v>
       </c>
       <c r="LF14" t="n">
-        <v>8923.013655999999</v>
+        <v>8922.927134</v>
       </c>
       <c r="LG14" t="n">
-        <v>8999.615061</v>
+        <v>8999.932191</v>
       </c>
       <c r="LH14" t="n">
-        <v>9107.905171</v>
+        <v>9107.661047</v>
       </c>
       <c r="LI14" t="n">
-        <v>9104.697088999999</v>
+        <v>9104.028039999999</v>
       </c>
       <c r="LJ14" t="n">
-        <v>9131.164575999999</v>
+        <v>9130.918823</v>
       </c>
       <c r="LK14" t="n">
-        <v>9077.294292</v>
+        <v>9076.881528</v>
       </c>
       <c r="LL14" t="n">
-        <v>9201.604992</v>
+        <v>9201.598983</v>
       </c>
       <c r="LM14" t="n">
-        <v>9355.011397</v>
+        <v>9357.546350000001</v>
       </c>
       <c r="LN14" t="n">
-        <v>9469.20253</v>
+        <v>9472.846191000001</v>
       </c>
       <c r="LO14" t="n">
-        <v>9299.645973000001</v>
+        <v>9298.926315000001</v>
       </c>
       <c r="LP14" t="n">
-        <v>9327.78919</v>
+        <v>9326.387653</v>
       </c>
       <c r="LQ14" t="n">
-        <v>9382.270264999999</v>
+        <v>9381.052901999999</v>
       </c>
       <c r="LR14" t="n">
-        <v>9615.082046</v>
+        <v>9614.870842</v>
       </c>
       <c r="LS14" t="n">
-        <v>9789.22386</v>
+        <v>9788.623389</v>
       </c>
       <c r="LT14" t="n">
-        <v>10051.322596</v>
+        <v>10048.513915</v>
       </c>
       <c r="LU14" t="n">
-        <v>9800.691418</v>
+        <v>9798.856947</v>
       </c>
       <c r="LV14" t="n">
-        <v>9891.118773</v>
+        <v>9892.290768000001</v>
       </c>
       <c r="LW14" t="n">
-        <v>9754.055517000001</v>
+        <v>9754.314996999999</v>
       </c>
       <c r="LX14" t="n">
-        <v>9870.25769</v>
+        <v>9870.49842</v>
       </c>
       <c r="LY14" t="n">
-        <v>10096.180747</v>
+        <v>10099.861406</v>
       </c>
       <c r="LZ14" t="n">
-        <v>10038.310165</v>
+        <v>10045.626732</v>
       </c>
       <c r="MA14" t="n">
-        <v>9780.868033999999</v>
+        <v>9779.057789</v>
       </c>
       <c r="MB14" t="n">
-        <v>9823.270511999999</v>
+        <v>9819.932516999999</v>
       </c>
       <c r="MC14" t="n">
-        <v>9985.678508000001</v>
+        <v>9983.999816</v>
       </c>
       <c r="MD14" t="n">
-        <v>10124.910203</v>
+        <v>10122.370682</v>
       </c>
       <c r="ME14" t="n">
-        <v>10127.021197</v>
+        <v>10125.865196</v>
       </c>
       <c r="MF14" t="n">
-        <v>10085.744608</v>
+        <v>10082.741036</v>
       </c>
       <c r="MG14" t="n">
-        <v>10228.783178</v>
+        <v>10225.842508</v>
       </c>
       <c r="MH14" t="n">
-        <v>9993.379714000001</v>
+        <v>9994.465582000001</v>
       </c>
       <c r="MI14" t="n">
-        <v>10425.229753</v>
+        <v>10426.042527</v>
       </c>
       <c r="MJ14" t="n">
-        <v>10246.206368</v>
+        <v>10249.705497</v>
       </c>
       <c r="MK14" t="n">
-        <v>10360.718616</v>
+        <v>10365.605014</v>
       </c>
       <c r="ML14" t="n">
-        <v>10259.693458</v>
+        <v>10268.256441</v>
       </c>
       <c r="MM14" t="n">
-        <v>10561.368622</v>
+        <v>10559.64033</v>
       </c>
       <c r="MN14" t="n">
-        <v>10647.862558</v>
+        <v>10646.077059</v>
       </c>
       <c r="MO14" t="n">
-        <v>10403.496893</v>
+        <v>10403.353653</v>
       </c>
       <c r="MP14" t="n">
-        <v>10436.483651</v>
+        <v>10435.341015</v>
       </c>
       <c r="MQ14" t="n">
-        <v>10506.284762</v>
+        <v>10507.5846</v>
       </c>
       <c r="MR14" t="n">
-        <v>10237.98386</v>
+        <v>10234.823737</v>
       </c>
       <c r="MS14" t="n">
-        <v>10373.5717</v>
+        <v>10370.253715</v>
       </c>
       <c r="MT14" t="n">
-        <v>10719.482908</v>
+        <v>10721.491367</v>
       </c>
       <c r="MU14" t="n">
-        <v>10586.50149</v>
+        <v>10586.893988</v>
       </c>
       <c r="MV14" t="n">
-        <v>10510.912946</v>
+        <v>10518.433283</v>
       </c>
       <c r="MW14" t="n">
-        <v>10008.842233</v>
+        <v>10016.677175</v>
       </c>
       <c r="MX14" t="n">
-        <v>10134.452008</v>
+        <v>10143.327722</v>
       </c>
       <c r="MY14" t="n">
-        <v>10314.136974</v>
+        <v>10307.614746</v>
       </c>
       <c r="MZ14" t="n">
-        <v>8467.186793999999</v>
+        <v>8461.635829000001</v>
       </c>
       <c r="NA14" t="n">
-        <v>6548.626648</v>
+        <v>6546.505117</v>
       </c>
       <c r="NB14" t="n">
-        <v>8016.218751</v>
+        <v>8010.379742</v>
       </c>
       <c r="NC14" t="n">
-        <v>9399.298217</v>
+        <v>9393.407010999999</v>
       </c>
       <c r="ND14" t="n">
-        <v>9990.741296</v>
+        <v>9984.765293</v>
       </c>
       <c r="NE14" t="n">
-        <v>9871.196451</v>
+        <v>9864.589303000001</v>
       </c>
       <c r="NF14" t="n">
-        <v>9885.06062</v>
+        <v>9885.087224000001</v>
       </c>
       <c r="NG14" t="n">
-        <v>10063.763975</v>
+        <v>10061.704876</v>
       </c>
       <c r="NH14" t="n">
-        <v>10390.082071</v>
+        <v>10398.612419</v>
       </c>
       <c r="NI14" t="n">
-        <v>10342.338374</v>
+        <v>10354.894644</v>
       </c>
       <c r="NJ14" t="n">
-        <v>10568.332401</v>
+        <v>10575.989421</v>
       </c>
       <c r="NK14" t="n">
-        <v>10765.102925</v>
+        <v>10757.042915</v>
       </c>
       <c r="NL14" t="n">
-        <v>10678.696554</v>
+        <v>10672.99098</v>
       </c>
       <c r="NM14" t="n">
-        <v>10843.188183</v>
+        <v>10840.812028</v>
       </c>
       <c r="NN14" t="n">
-        <v>10748.256847</v>
+        <v>10739.171379</v>
       </c>
       <c r="NO14" t="n">
-        <v>10698.592855</v>
+        <v>10692.715273</v>
       </c>
       <c r="NP14" t="n">
-        <v>10875.820752</v>
+        <v>10867.515971</v>
       </c>
       <c r="NQ14" t="n">
-        <v>11163.607675</v>
+        <v>11155.568605</v>
       </c>
       <c r="NR14" t="n">
-        <v>10891.545017</v>
+        <v>10891.261996</v>
       </c>
       <c r="NS14" t="n">
-        <v>11140.650987</v>
+        <v>11129.136611</v>
       </c>
       <c r="NT14" t="n">
-        <v>11261.933392</v>
+        <v>11247.169111</v>
       </c>
       <c r="NU14" t="n">
-        <v>11837.03565</v>
+        <v>11803.0745</v>
       </c>
       <c r="NV14" t="n">
-        <v>11578.30296</v>
+        <v>11597.709747</v>
+      </c>
+      <c r="NW14" t="n">
+        <v>11736.763117</v>
       </c>
     </row>
     <row r="15">
@@ -15594,331 +15638,334 @@
         <v>7603.140422</v>
       </c>
       <c r="JR15" t="n">
-        <v>7282.212445</v>
+        <v>7282.39815</v>
       </c>
       <c r="JS15" t="n">
-        <v>6931.537632</v>
+        <v>6932.685584</v>
       </c>
       <c r="JT15" t="n">
-        <v>8321.436874999999</v>
+        <v>8322.500709</v>
       </c>
       <c r="JU15" t="n">
-        <v>8934.557891</v>
+        <v>8934.708443</v>
       </c>
       <c r="JV15" t="n">
-        <v>7480.960356</v>
+        <v>7480.681236</v>
       </c>
       <c r="JW15" t="n">
-        <v>7447.213285</v>
+        <v>7446.164081</v>
       </c>
       <c r="JX15" t="n">
-        <v>7796.28916</v>
+        <v>7795.102446</v>
       </c>
       <c r="JY15" t="n">
-        <v>7683.533504</v>
+        <v>7681.787838</v>
       </c>
       <c r="JZ15" t="n">
-        <v>7584.490875</v>
+        <v>7582.559214</v>
       </c>
       <c r="KA15" t="n">
-        <v>7990.768692</v>
+        <v>7992.879702</v>
       </c>
       <c r="KB15" t="n">
-        <v>7487.492188</v>
+        <v>7486.626605</v>
       </c>
       <c r="KC15" t="n">
-        <v>7760.195496</v>
+        <v>7762.51443</v>
       </c>
       <c r="KD15" t="n">
-        <v>7949.169846</v>
+        <v>7949.563578</v>
       </c>
       <c r="KE15" t="n">
-        <v>7731.932075</v>
+        <v>7732.889406</v>
       </c>
       <c r="KF15" t="n">
-        <v>7521.674441</v>
+        <v>7525.800529</v>
       </c>
       <c r="KG15" t="n">
-        <v>7803.405212</v>
+        <v>7803.09269</v>
       </c>
       <c r="KH15" t="n">
-        <v>8084.134556</v>
+        <v>8079.74217</v>
       </c>
       <c r="KI15" t="n">
-        <v>7776.755215</v>
+        <v>7774.586739</v>
       </c>
       <c r="KJ15" t="n">
-        <v>7733.937188</v>
+        <v>7730.25905</v>
       </c>
       <c r="KK15" t="n">
-        <v>6992.783081</v>
+        <v>6990.095955</v>
       </c>
       <c r="KL15" t="n">
-        <v>7779.859423</v>
+        <v>7777.857598</v>
       </c>
       <c r="KM15" t="n">
-        <v>7949.023673</v>
+        <v>7953.006943</v>
       </c>
       <c r="KN15" t="n">
-        <v>8215.868825</v>
+        <v>8213.548894</v>
       </c>
       <c r="KO15" t="n">
-        <v>8141.162851</v>
+        <v>8148.825774</v>
       </c>
       <c r="KP15" t="n">
-        <v>8519.181527999999</v>
+        <v>8518.389503</v>
       </c>
       <c r="KQ15" t="n">
-        <v>8953.011780000001</v>
+        <v>8955.274315000001</v>
       </c>
       <c r="KR15" t="n">
-        <v>7791.961552</v>
+        <v>7800.87265</v>
       </c>
       <c r="KS15" t="n">
-        <v>8623.816433</v>
+        <v>8626.731449000001</v>
       </c>
       <c r="KT15" t="n">
-        <v>8803.847368999999</v>
+        <v>8793.084687</v>
       </c>
       <c r="KU15" t="n">
-        <v>9342.122413999999</v>
+        <v>9343.300275</v>
       </c>
       <c r="KV15" t="n">
-        <v>8225.167821999999</v>
+        <v>8196.270192</v>
       </c>
       <c r="KW15" t="n">
-        <v>8408.035427999999</v>
+        <v>8407.136295</v>
       </c>
       <c r="KX15" t="n">
-        <v>8434.668824</v>
+        <v>8436.216122</v>
       </c>
       <c r="KY15" t="n">
-        <v>9086.749148999999</v>
+        <v>9099.319143000001</v>
       </c>
       <c r="KZ15" t="n">
-        <v>8584.449615</v>
+        <v>8585.747455999999</v>
       </c>
       <c r="LA15" t="n">
-        <v>8805.806420999999</v>
+        <v>8820.691065000001</v>
       </c>
       <c r="LB15" t="n">
-        <v>8545.278754999999</v>
+        <v>8545.829099</v>
       </c>
       <c r="LC15" t="n">
-        <v>8215.574071999999</v>
+        <v>8207.759354</v>
       </c>
       <c r="LD15" t="n">
-        <v>8556.400994</v>
+        <v>8568.751899999999</v>
       </c>
       <c r="LE15" t="n">
-        <v>8607.675225999999</v>
+        <v>8613.784238</v>
       </c>
       <c r="LF15" t="n">
-        <v>9356.237486</v>
+        <v>9344.77793</v>
       </c>
       <c r="LG15" t="n">
-        <v>8668.233973</v>
+        <v>8671.546455</v>
       </c>
       <c r="LH15" t="n">
-        <v>8483.504134000001</v>
+        <v>8426.822598999999</v>
       </c>
       <c r="LI15" t="n">
-        <v>8684.462313</v>
+        <v>8685.958834999999</v>
       </c>
       <c r="LJ15" t="n">
-        <v>8557.046418</v>
+        <v>8575.308415</v>
       </c>
       <c r="LK15" t="n">
-        <v>8054.650293</v>
+        <v>8065.363104</v>
       </c>
       <c r="LL15" t="n">
-        <v>8793.690909999999</v>
+        <v>8795.973738999999</v>
       </c>
       <c r="LM15" t="n">
-        <v>10945.97752</v>
+        <v>10971.456575</v>
       </c>
       <c r="LN15" t="n">
-        <v>7976.217253</v>
+        <v>7978.464703</v>
       </c>
       <c r="LO15" t="n">
-        <v>8380.444207</v>
+        <v>8364.571932999999</v>
       </c>
       <c r="LP15" t="n">
-        <v>8840.990367</v>
+        <v>8854.649267000001</v>
       </c>
       <c r="LQ15" t="n">
-        <v>8344.137416</v>
+        <v>8354.323455</v>
       </c>
       <c r="LR15" t="n">
-        <v>10298.650409</v>
+        <v>10285.985964</v>
       </c>
       <c r="LS15" t="n">
-        <v>8773.955088000001</v>
+        <v>8783.713366</v>
       </c>
       <c r="LT15" t="n">
-        <v>8772.108344</v>
+        <v>8681.546424</v>
       </c>
       <c r="LU15" t="n">
-        <v>8725.21009</v>
+        <v>8730.033718000001</v>
       </c>
       <c r="LV15" t="n">
-        <v>9541.079216</v>
+        <v>9583.555155</v>
       </c>
       <c r="LW15" t="n">
-        <v>8715.946744999999</v>
+        <v>8735.988368</v>
       </c>
       <c r="LX15" t="n">
-        <v>8649.305576000001</v>
+        <v>8657.611718</v>
       </c>
       <c r="LY15" t="n">
-        <v>10412.9947</v>
+        <v>10435.013497</v>
       </c>
       <c r="LZ15" t="n">
-        <v>8898.190508</v>
+        <v>8903.297069</v>
       </c>
       <c r="MA15" t="n">
-        <v>9286.748740000001</v>
+        <v>9237.866006</v>
       </c>
       <c r="MB15" t="n">
-        <v>9606.199198</v>
+        <v>9616.113689</v>
       </c>
       <c r="MC15" t="n">
-        <v>9634.748536999999</v>
+        <v>9652.026271999999</v>
       </c>
       <c r="MD15" t="n">
-        <v>8496.797602000001</v>
+        <v>8487.293745999999</v>
       </c>
       <c r="ME15" t="n">
-        <v>9360.368936999999</v>
+        <v>9375.177565</v>
       </c>
       <c r="MF15" t="n">
-        <v>10300.723927</v>
+        <v>10163.266163</v>
       </c>
       <c r="MG15" t="n">
-        <v>8685.448316</v>
+        <v>8694.313340000001</v>
       </c>
       <c r="MH15" t="n">
-        <v>9237.87803</v>
+        <v>9304.403844</v>
       </c>
       <c r="MI15" t="n">
-        <v>10155.595669</v>
+        <v>10192.056782</v>
       </c>
       <c r="MJ15" t="n">
-        <v>9514.979528</v>
+        <v>9513.054505</v>
       </c>
       <c r="MK15" t="n">
-        <v>9416.27664</v>
+        <v>9449.462223</v>
       </c>
       <c r="ML15" t="n">
-        <v>10217.057173</v>
+        <v>10245.921088</v>
       </c>
       <c r="MM15" t="n">
-        <v>10005.04548</v>
+        <v>9882.330925</v>
       </c>
       <c r="MN15" t="n">
-        <v>10480.985906</v>
+        <v>10492.631306</v>
       </c>
       <c r="MO15" t="n">
-        <v>9533.816022999999</v>
+        <v>9561.906782</v>
       </c>
       <c r="MP15" t="n">
-        <v>10753.25731</v>
+        <v>10749.491134</v>
       </c>
       <c r="MQ15" t="n">
-        <v>10035.013196</v>
+        <v>10066.413896</v>
       </c>
       <c r="MR15" t="n">
-        <v>9869.254902999999</v>
+        <v>9730.133421</v>
       </c>
       <c r="MS15" t="n">
-        <v>9713.422927</v>
+        <v>9747.230686000001</v>
       </c>
       <c r="MT15" t="n">
-        <v>8625.965818999999</v>
+        <v>8716.848588000001</v>
       </c>
       <c r="MU15" t="n">
-        <v>10175.747328</v>
+        <v>10243.11631</v>
       </c>
       <c r="MV15" t="n">
-        <v>9652.842537</v>
+        <v>9650.362596999999</v>
       </c>
       <c r="MW15" t="n">
-        <v>9724.301721</v>
+        <v>9795.719293</v>
       </c>
       <c r="MX15" t="n">
-        <v>8726.387444</v>
+        <v>8772.565767</v>
       </c>
       <c r="MY15" t="n">
-        <v>9760.073452000001</v>
+        <v>9515.692934999999</v>
       </c>
       <c r="MZ15" t="n">
-        <v>6768.456137</v>
+        <v>6774.564395</v>
       </c>
       <c r="NA15" t="n">
-        <v>2015.345525</v>
+        <v>2029.936329</v>
       </c>
       <c r="NB15" t="n">
-        <v>3543.798936</v>
+        <v>3551.932417</v>
       </c>
       <c r="NC15" t="n">
-        <v>4902.130428</v>
+        <v>4923.190902</v>
       </c>
       <c r="ND15" t="n">
-        <v>6403.171232</v>
+        <v>6362.723789</v>
       </c>
       <c r="NE15" t="n">
-        <v>6315.623263</v>
+        <v>6334.373417</v>
       </c>
       <c r="NF15" t="n">
-        <v>7371.318312</v>
+        <v>7442.120073</v>
       </c>
       <c r="NG15" t="n">
-        <v>8122.301725</v>
+        <v>8171.821194</v>
       </c>
       <c r="NH15" t="n">
-        <v>7566.389725</v>
+        <v>7555.789458</v>
       </c>
       <c r="NI15" t="n">
-        <v>7386.099446</v>
+        <v>7455.46607</v>
       </c>
       <c r="NJ15" t="n">
-        <v>7186.865331</v>
+        <v>7219.216957</v>
       </c>
       <c r="NK15" t="n">
-        <v>7046.162201</v>
+        <v>6910.538159</v>
       </c>
       <c r="NL15" t="n">
-        <v>6951.869396</v>
+        <v>6956.199048</v>
       </c>
       <c r="NM15" t="n">
-        <v>7684.322459</v>
+        <v>7720.632797</v>
       </c>
       <c r="NN15" t="n">
-        <v>6650.863941</v>
+        <v>6664.625137</v>
       </c>
       <c r="NO15" t="n">
-        <v>7079.893093</v>
+        <v>7112.646032</v>
       </c>
       <c r="NP15" t="n">
-        <v>6728.794882</v>
+        <v>6687.241685</v>
       </c>
       <c r="NQ15" t="n">
-        <v>7153.319682</v>
+        <v>7170.892245</v>
       </c>
       <c r="NR15" t="n">
-        <v>6826.404734</v>
+        <v>6889.209579</v>
       </c>
       <c r="NS15" t="n">
-        <v>6945.499728</v>
+        <v>6985.475504</v>
       </c>
       <c r="NT15" t="n">
-        <v>6658.335991</v>
+        <v>6655.250595</v>
       </c>
       <c r="NU15" t="n">
-        <v>7229.331109</v>
+        <v>7269.147394</v>
       </c>
       <c r="NV15" t="n">
-        <v>8916.785722000001</v>
+        <v>8964.402457</v>
+      </c>
+      <c r="NW15" t="n">
+        <v>7681.42998</v>
       </c>
     </row>
     <row r="16">
@@ -16516,331 +16563,334 @@
         <v>6095.801812</v>
       </c>
       <c r="JR16" t="n">
-        <v>6003.878222</v>
+        <v>6003.057056</v>
       </c>
       <c r="JS16" t="n">
-        <v>6229.970418</v>
+        <v>6229.655636</v>
       </c>
       <c r="JT16" t="n">
-        <v>6099.08009</v>
+        <v>6098.777505</v>
       </c>
       <c r="JU16" t="n">
-        <v>6565.056902</v>
+        <v>6564.465893</v>
       </c>
       <c r="JV16" t="n">
-        <v>5944.771977</v>
+        <v>5945.119033</v>
       </c>
       <c r="JW16" t="n">
-        <v>6305.859701</v>
+        <v>6304.401492</v>
       </c>
       <c r="JX16" t="n">
-        <v>6309.326998</v>
+        <v>6313.313249</v>
       </c>
       <c r="JY16" t="n">
-        <v>6265.416611</v>
+        <v>6264.974389</v>
       </c>
       <c r="JZ16" t="n">
-        <v>6134.490321</v>
+        <v>6132.733492</v>
       </c>
       <c r="KA16" t="n">
-        <v>6537.041795</v>
+        <v>6537.360099</v>
       </c>
       <c r="KB16" t="n">
-        <v>6419.338542</v>
+        <v>6421.453547</v>
       </c>
       <c r="KC16" t="n">
-        <v>6612.673311</v>
+        <v>6611.9925</v>
       </c>
       <c r="KD16" t="n">
-        <v>6321.192844</v>
+        <v>6320.615779</v>
       </c>
       <c r="KE16" t="n">
-        <v>6149.157623</v>
+        <v>6148.837593</v>
       </c>
       <c r="KF16" t="n">
-        <v>5919.70267</v>
+        <v>5917.664257</v>
       </c>
       <c r="KG16" t="n">
-        <v>5912.740034</v>
+        <v>5913.80178</v>
       </c>
       <c r="KH16" t="n">
-        <v>6354.246404</v>
+        <v>6353.099113</v>
       </c>
       <c r="KI16" t="n">
-        <v>6819.591518</v>
+        <v>6818.082238</v>
       </c>
       <c r="KJ16" t="n">
-        <v>7091.057263</v>
+        <v>7098.613623</v>
       </c>
       <c r="KK16" t="n">
-        <v>6313.71869</v>
+        <v>6313.02991</v>
       </c>
       <c r="KL16" t="n">
-        <v>6523.861945</v>
+        <v>6522.383822</v>
       </c>
       <c r="KM16" t="n">
-        <v>6547.530969</v>
+        <v>6547.912333</v>
       </c>
       <c r="KN16" t="n">
-        <v>6487.192362</v>
+        <v>6486.85966</v>
       </c>
       <c r="KO16" t="n">
-        <v>6454.364304</v>
+        <v>6454.354524</v>
       </c>
       <c r="KP16" t="n">
-        <v>6842.945886</v>
+        <v>6842.452408</v>
       </c>
       <c r="KQ16" t="n">
-        <v>6882.177757</v>
+        <v>6881.889456</v>
       </c>
       <c r="KR16" t="n">
-        <v>6592.594956</v>
+        <v>6590.720744</v>
       </c>
       <c r="KS16" t="n">
-        <v>7058.10575</v>
+        <v>7059.137915</v>
       </c>
       <c r="KT16" t="n">
-        <v>8254.485288</v>
+        <v>8254.220631</v>
       </c>
       <c r="KU16" t="n">
-        <v>7123.727569</v>
+        <v>7120.993474</v>
       </c>
       <c r="KV16" t="n">
-        <v>6821.121137</v>
+        <v>6827.674382</v>
       </c>
       <c r="KW16" t="n">
-        <v>6594.002932</v>
+        <v>6591.55746</v>
       </c>
       <c r="KX16" t="n">
-        <v>7214.580826</v>
+        <v>7214.489014</v>
       </c>
       <c r="KY16" t="n">
-        <v>7326.950177</v>
+        <v>7327.253574</v>
       </c>
       <c r="KZ16" t="n">
-        <v>7311.808069</v>
+        <v>7309.09265</v>
       </c>
       <c r="LA16" t="n">
-        <v>7596.985558</v>
+        <v>7599.91688</v>
       </c>
       <c r="LB16" t="n">
-        <v>7565.080209</v>
+        <v>7564.213929</v>
       </c>
       <c r="LC16" t="n">
-        <v>7822.371813</v>
+        <v>7820.420262</v>
       </c>
       <c r="LD16" t="n">
-        <v>7670.785362</v>
+        <v>7672.477435</v>
       </c>
       <c r="LE16" t="n">
-        <v>8043.538814</v>
+        <v>8043.076291</v>
       </c>
       <c r="LF16" t="n">
-        <v>7334.688052</v>
+        <v>7334.123768</v>
       </c>
       <c r="LG16" t="n">
-        <v>7336.334734</v>
+        <v>7334.977884</v>
       </c>
       <c r="LH16" t="n">
-        <v>7494.866084</v>
+        <v>7500.07807</v>
       </c>
       <c r="LI16" t="n">
-        <v>8102.391163</v>
+        <v>8101.755918</v>
       </c>
       <c r="LJ16" t="n">
-        <v>7582.549801</v>
+        <v>7582.181829</v>
       </c>
       <c r="LK16" t="n">
-        <v>7813.169421</v>
+        <v>7811.159874</v>
       </c>
       <c r="LL16" t="n">
-        <v>8021.353246</v>
+        <v>8020.434684</v>
       </c>
       <c r="LM16" t="n">
-        <v>8272.619033999999</v>
+        <v>8276.011353</v>
       </c>
       <c r="LN16" t="n">
-        <v>8034.073672</v>
+        <v>8031.886976</v>
       </c>
       <c r="LO16" t="n">
-        <v>7567.209937</v>
+        <v>7567.94821</v>
       </c>
       <c r="LP16" t="n">
-        <v>7970.981143</v>
+        <v>7971.213913</v>
       </c>
       <c r="LQ16" t="n">
-        <v>7857.493507</v>
+        <v>7858.874807</v>
       </c>
       <c r="LR16" t="n">
-        <v>7884.451487</v>
+        <v>7886.57107</v>
       </c>
       <c r="LS16" t="n">
-        <v>7662.786817</v>
+        <v>7662.861266</v>
       </c>
       <c r="LT16" t="n">
-        <v>8409.108206999999</v>
+        <v>8412.40595</v>
       </c>
       <c r="LU16" t="n">
-        <v>7925.283116</v>
+        <v>7923.292905</v>
       </c>
       <c r="LV16" t="n">
-        <v>8098.688398</v>
+        <v>8097.624886</v>
       </c>
       <c r="LW16" t="n">
-        <v>7906.815497</v>
+        <v>7905.00685</v>
       </c>
       <c r="LX16" t="n">
-        <v>8086.445268</v>
+        <v>8084.592673</v>
       </c>
       <c r="LY16" t="n">
-        <v>7351.994593</v>
+        <v>7356.437273</v>
       </c>
       <c r="LZ16" t="n">
-        <v>8739.409288000001</v>
+        <v>8737.475141000001</v>
       </c>
       <c r="MA16" t="n">
-        <v>7549.885091</v>
+        <v>7550.374348</v>
       </c>
       <c r="MB16" t="n">
-        <v>7976.118702</v>
+        <v>7976.738952</v>
       </c>
       <c r="MC16" t="n">
-        <v>8459.442193999999</v>
+        <v>8459.567634000001</v>
       </c>
       <c r="MD16" t="n">
-        <v>8384.360605</v>
+        <v>8386.399008</v>
       </c>
       <c r="ME16" t="n">
-        <v>8170.242722</v>
+        <v>8167.29465</v>
       </c>
       <c r="MF16" t="n">
-        <v>8514.055762</v>
+        <v>8522.266901999999</v>
       </c>
       <c r="MG16" t="n">
-        <v>7969.913783</v>
+        <v>7967.339824</v>
       </c>
       <c r="MH16" t="n">
-        <v>7799.048584</v>
+        <v>7797.769376</v>
       </c>
       <c r="MI16" t="n">
-        <v>7842.858568</v>
+        <v>7842.147918</v>
       </c>
       <c r="MJ16" t="n">
-        <v>7612.750275</v>
+        <v>7610.897821</v>
       </c>
       <c r="MK16" t="n">
-        <v>8398.111924000001</v>
+        <v>8403.113977000001</v>
       </c>
       <c r="ML16" t="n">
-        <v>8221.574487</v>
+        <v>8207.915163</v>
       </c>
       <c r="MM16" t="n">
-        <v>8245.728488999999</v>
+        <v>8250.229697999999</v>
       </c>
       <c r="MN16" t="n">
-        <v>8610.869686</v>
+        <v>8616.058416</v>
       </c>
       <c r="MO16" t="n">
-        <v>8412.476502</v>
+        <v>8413.103733</v>
       </c>
       <c r="MP16" t="n">
-        <v>8879.802403</v>
+        <v>8879.882602</v>
       </c>
       <c r="MQ16" t="n">
-        <v>8867.636367999999</v>
+        <v>8871.686399</v>
       </c>
       <c r="MR16" t="n">
-        <v>8960.546145</v>
+        <v>8973.20479</v>
       </c>
       <c r="MS16" t="n">
-        <v>9340.930276999999</v>
+        <v>9351.723499</v>
       </c>
       <c r="MT16" t="n">
-        <v>8567.558773999999</v>
+        <v>8585.569917999999</v>
       </c>
       <c r="MU16" t="n">
-        <v>8735.411971</v>
+        <v>8762.418023</v>
       </c>
       <c r="MV16" t="n">
-        <v>8475.377442000001</v>
+        <v>8484.798511000001</v>
       </c>
       <c r="MW16" t="n">
-        <v>8533.707479000001</v>
+        <v>8566.87365</v>
       </c>
       <c r="MX16" t="n">
-        <v>8378.804864</v>
+        <v>8365.131189</v>
       </c>
       <c r="MY16" t="n">
-        <v>8676.293871</v>
+        <v>8687.54702</v>
       </c>
       <c r="MZ16" t="n">
-        <v>5740.218024</v>
+        <v>5754.460008</v>
       </c>
       <c r="NA16" t="n">
-        <v>2250.286518</v>
+        <v>2252.12895</v>
       </c>
       <c r="NB16" t="n">
-        <v>4455.310589</v>
+        <v>4457.654426</v>
       </c>
       <c r="NC16" t="n">
-        <v>6350.208658</v>
+        <v>6366.342256</v>
       </c>
       <c r="ND16" t="n">
-        <v>7149.216172</v>
+        <v>7174.651627</v>
       </c>
       <c r="NE16" t="n">
-        <v>7021.630804</v>
+        <v>7040.618214</v>
       </c>
       <c r="NF16" t="n">
-        <v>7781.957868</v>
+        <v>7798.858053</v>
       </c>
       <c r="NG16" t="n">
-        <v>8071.76259</v>
+        <v>8083.658366</v>
       </c>
       <c r="NH16" t="n">
-        <v>7505.259168</v>
+        <v>7516.994893</v>
       </c>
       <c r="NI16" t="n">
-        <v>6842.874646</v>
+        <v>6846.232106</v>
       </c>
       <c r="NJ16" t="n">
-        <v>7141.99796</v>
+        <v>7093.575036</v>
       </c>
       <c r="NK16" t="n">
-        <v>6969.24075</v>
+        <v>7007.475206</v>
       </c>
       <c r="NL16" t="n">
-        <v>7214.864792</v>
+        <v>7229.611192</v>
       </c>
       <c r="NM16" t="n">
-        <v>7340.836926</v>
+        <v>7354.198196</v>
       </c>
       <c r="NN16" t="n">
-        <v>6883.097031</v>
+        <v>6897.127176</v>
       </c>
       <c r="NO16" t="n">
-        <v>7246.636636</v>
+        <v>7257.511587</v>
       </c>
       <c r="NP16" t="n">
-        <v>6833.169299</v>
+        <v>6854.516675</v>
       </c>
       <c r="NQ16" t="n">
-        <v>6738.189805</v>
+        <v>6751.081681</v>
       </c>
       <c r="NR16" t="n">
-        <v>6438.483082</v>
+        <v>6441.56569</v>
       </c>
       <c r="NS16" t="n">
-        <v>6922.478208</v>
+        <v>6919.442208</v>
       </c>
       <c r="NT16" t="n">
-        <v>7465.521765</v>
+        <v>7443.830647</v>
       </c>
       <c r="NU16" t="n">
-        <v>8013.069678</v>
+        <v>7968.457715</v>
       </c>
       <c r="NV16" t="n">
-        <v>7381.597993</v>
+        <v>7399.6986</v>
+      </c>
+      <c r="NW16" t="n">
+        <v>7239.722122</v>
       </c>
     </row>
   </sheetData>
